--- a/DGP3.xlsx
+++ b/DGP3.xlsx
@@ -419,10 +419,10 @@
         <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>0.914</v>
+        <v>0.9065</v>
       </c>
       <c r="G2" t="n">
-        <v>0.92</v>
+        <v>0.913</v>
       </c>
     </row>
     <row r="3">
@@ -442,10 +442,10 @@
         <v>8</v>
       </c>
       <c r="F3" t="n">
-        <v>0.906</v>
+        <v>0.8955</v>
       </c>
       <c r="G3" t="n">
-        <v>0.906</v>
+        <v>0.9055</v>
       </c>
     </row>
     <row r="4">
@@ -465,10 +465,10 @@
         <v>8</v>
       </c>
       <c r="F4" t="n">
-        <v>0.903</v>
+        <v>0.9075</v>
       </c>
       <c r="G4" t="n">
-        <v>0.904</v>
+        <v>0.9185</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>8</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9</v>
+        <v>0.9145</v>
       </c>
       <c r="G5" t="n">
-        <v>0.908</v>
+        <v>0.9225</v>
       </c>
     </row>
     <row r="6">
@@ -511,10 +511,10 @@
         <v>8</v>
       </c>
       <c r="F6" t="n">
-        <v>0.908</v>
+        <v>0.922</v>
       </c>
       <c r="G6" t="n">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="7">
@@ -534,10 +534,10 @@
         <v>8</v>
       </c>
       <c r="F7" t="n">
-        <v>0.917</v>
+        <v>0.9125</v>
       </c>
       <c r="G7" t="n">
-        <v>0.915</v>
+        <v>0.926</v>
       </c>
     </row>
     <row r="8">
@@ -557,10 +557,10 @@
         <v>8</v>
       </c>
       <c r="F8" t="n">
-        <v>0.897</v>
+        <v>0.9075</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9</v>
+        <v>0.9175</v>
       </c>
     </row>
     <row r="9">
@@ -580,10 +580,10 @@
         <v>8</v>
       </c>
       <c r="F9" t="n">
-        <v>0.92</v>
+        <v>0.9085</v>
       </c>
       <c r="G9" t="n">
-        <v>0.918</v>
+        <v>0.927</v>
       </c>
     </row>
     <row r="10">
@@ -603,10 +603,10 @@
         <v>8</v>
       </c>
       <c r="F10" t="n">
-        <v>0.901</v>
+        <v>0.9245</v>
       </c>
       <c r="G10" t="n">
-        <v>0.901</v>
+        <v>0.9265</v>
       </c>
     </row>
     <row r="11">
@@ -626,10 +626,10 @@
         <v>8</v>
       </c>
       <c r="F11" t="n">
-        <v>0.902</v>
+        <v>0.9255</v>
       </c>
       <c r="G11" t="n">
-        <v>0.905</v>
+        <v>0.929</v>
       </c>
     </row>
     <row r="12">
@@ -649,10 +649,10 @@
         <v>9</v>
       </c>
       <c r="F12" t="n">
-        <v>3.8162116712868</v>
+        <v>3.80807977216105</v>
       </c>
       <c r="G12" t="n">
-        <v>3.80283905435541</v>
+        <v>3.88611854589529</v>
       </c>
     </row>
     <row r="13">
@@ -672,10 +672,10 @@
         <v>9</v>
       </c>
       <c r="F13" t="n">
-        <v>3.84559878434301</v>
+        <v>3.79786831551208</v>
       </c>
       <c r="G13" t="n">
-        <v>3.82450334875897</v>
+        <v>3.90642404541595</v>
       </c>
     </row>
     <row r="14">
@@ -695,10 +695,10 @@
         <v>9</v>
       </c>
       <c r="F14" t="n">
-        <v>3.86598940951026</v>
+        <v>3.80741867955449</v>
       </c>
       <c r="G14" t="n">
-        <v>3.84306360324357</v>
+        <v>3.92468622093752</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         <v>9</v>
       </c>
       <c r="F15" t="n">
-        <v>3.83197923383525</v>
+        <v>3.82796407964198</v>
       </c>
       <c r="G15" t="n">
-        <v>3.82798845324975</v>
+        <v>3.91962088978801</v>
       </c>
     </row>
     <row r="16">
@@ -741,10 +741,10 @@
         <v>9</v>
       </c>
       <c r="F16" t="n">
-        <v>3.84083048996218</v>
+        <v>3.80000008591656</v>
       </c>
       <c r="G16" t="n">
-        <v>3.84741776838699</v>
+        <v>3.92041344729269</v>
       </c>
     </row>
     <row r="17">
@@ -764,10 +764,10 @@
         <v>9</v>
       </c>
       <c r="F17" t="n">
-        <v>3.81480057214652</v>
+        <v>3.80129411188103</v>
       </c>
       <c r="G17" t="n">
-        <v>3.86165460952183</v>
+        <v>3.92596950556667</v>
       </c>
     </row>
     <row r="18">
@@ -787,10 +787,10 @@
         <v>9</v>
       </c>
       <c r="F18" t="n">
-        <v>3.82146759194016</v>
+        <v>3.79323942673562</v>
       </c>
       <c r="G18" t="n">
-        <v>3.80525855079386</v>
+        <v>3.91521009805833</v>
       </c>
     </row>
     <row r="19">
@@ -810,10 +810,10 @@
         <v>9</v>
       </c>
       <c r="F19" t="n">
-        <v>3.81893139605598</v>
+        <v>3.79168462747169</v>
       </c>
       <c r="G19" t="n">
-        <v>3.81216503886442</v>
+        <v>3.9376897372345</v>
       </c>
     </row>
     <row r="20">
@@ -833,10 +833,10 @@
         <v>9</v>
       </c>
       <c r="F20" t="n">
-        <v>3.83703337985245</v>
+        <v>3.80376316040926</v>
       </c>
       <c r="G20" t="n">
-        <v>3.83121133203754</v>
+        <v>3.93122753971301</v>
       </c>
     </row>
     <row r="21">
@@ -856,10 +856,10 @@
         <v>9</v>
       </c>
       <c r="F21" t="n">
-        <v>3.8366735778475</v>
+        <v>3.8319809696632</v>
       </c>
       <c r="G21" t="n">
-        <v>3.80214057225978</v>
+        <v>3.92372582179529</v>
       </c>
     </row>
     <row r="22">
@@ -879,10 +879,10 @@
         <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>2.05759214701026</v>
+        <v>2.16050579871966</v>
       </c>
       <c r="G22" t="n">
-        <v>2.03786231227153</v>
+        <v>2.13935618218587</v>
       </c>
     </row>
     <row r="23">
@@ -902,10 +902,10 @@
         <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>2.25807051632812</v>
+        <v>2.15312909294355</v>
       </c>
       <c r="G23" t="n">
-        <v>2.22090087227161</v>
+        <v>2.12821972742738</v>
       </c>
     </row>
     <row r="24">
@@ -925,10 +925,10 @@
         <v>10</v>
       </c>
       <c r="F24" t="n">
-        <v>2.0916811396036</v>
+        <v>2.14052198095468</v>
       </c>
       <c r="G24" t="n">
-        <v>2.05350523488142</v>
+        <v>2.11777828602462</v>
       </c>
     </row>
     <row r="25">
@@ -948,10 +948,10 @@
         <v>10</v>
       </c>
       <c r="F25" t="n">
-        <v>2.02880642779369</v>
+        <v>2.1053596127084</v>
       </c>
       <c r="G25" t="n">
-        <v>2.02873952899752</v>
+        <v>2.08735429335072</v>
       </c>
     </row>
     <row r="26">
@@ -971,10 +971,10 @@
         <v>10</v>
       </c>
       <c r="F26" t="n">
-        <v>2.15210004043812</v>
+        <v>2.11449426916393</v>
       </c>
       <c r="G26" t="n">
-        <v>2.12815494570333</v>
+        <v>2.13297055208688</v>
       </c>
     </row>
     <row r="27">
@@ -994,10 +994,10 @@
         <v>10</v>
       </c>
       <c r="F27" t="n">
-        <v>2.12341473065304</v>
+        <v>2.04610302817542</v>
       </c>
       <c r="G27" t="n">
-        <v>2.10109204510368</v>
+        <v>2.01349486353085</v>
       </c>
     </row>
     <row r="28">
@@ -1017,10 +1017,10 @@
         <v>10</v>
       </c>
       <c r="F28" t="n">
-        <v>2.15610581774545</v>
+        <v>2.10208121027478</v>
       </c>
       <c r="G28" t="n">
-        <v>2.14772600968607</v>
+        <v>2.09410100558259</v>
       </c>
     </row>
     <row r="29">
@@ -1040,10 +1040,10 @@
         <v>10</v>
       </c>
       <c r="F29" t="n">
-        <v>2.03430122463511</v>
+        <v>2.10980660324862</v>
       </c>
       <c r="G29" t="n">
-        <v>1.9777212170793</v>
+        <v>2.08979721902341</v>
       </c>
     </row>
     <row r="30">
@@ -1063,10 +1063,10 @@
         <v>10</v>
       </c>
       <c r="F30" t="n">
-        <v>2.16209085781234</v>
+        <v>2.13323917282535</v>
       </c>
       <c r="G30" t="n">
-        <v>2.12130507478364</v>
+        <v>2.12969336848439</v>
       </c>
     </row>
     <row r="31">
@@ -1086,10 +1086,10 @@
         <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>2.31038116765383</v>
+        <v>2.14444658506894</v>
       </c>
       <c r="G31" t="n">
-        <v>2.28649519222644</v>
+        <v>2.10475800461919</v>
       </c>
     </row>
     <row r="32">
@@ -1109,10 +1109,10 @@
         <v>11</v>
       </c>
       <c r="F32" t="n">
-        <v>1.0739544241636</v>
+        <v>1.07724507374043</v>
       </c>
       <c r="G32" t="n">
-        <v>1.08814696294877</v>
+        <v>1.07225250471057</v>
       </c>
     </row>
     <row r="33">
@@ -1132,10 +1132,10 @@
         <v>11</v>
       </c>
       <c r="F33" t="n">
-        <v>1.11365321350541</v>
+        <v>1.08708119638169</v>
       </c>
       <c r="G33" t="n">
-        <v>1.06729119393178</v>
+        <v>1.06990100261176</v>
       </c>
     </row>
     <row r="34">
@@ -1155,10 +1155,10 @@
         <v>11</v>
       </c>
       <c r="F34" t="n">
-        <v>1.0808869409829</v>
+        <v>1.0654981508815</v>
       </c>
       <c r="G34" t="n">
-        <v>1.07104735177499</v>
+        <v>1.08535582380257</v>
       </c>
     </row>
     <row r="35">
@@ -1178,10 +1178,10 @@
         <v>11</v>
       </c>
       <c r="F35" t="n">
-        <v>0.994902194712836</v>
+        <v>1.08701175643336</v>
       </c>
       <c r="G35" t="n">
-        <v>0.991327867961496</v>
+        <v>1.08393584046576</v>
       </c>
     </row>
     <row r="36">
@@ -1201,10 +1201,10 @@
         <v>11</v>
       </c>
       <c r="F36" t="n">
-        <v>1.08969059079679</v>
+        <v>1.07454464324754</v>
       </c>
       <c r="G36" t="n">
-        <v>1.07758079629438</v>
+        <v>1.06716293915704</v>
       </c>
     </row>
     <row r="37">
@@ -1224,10 +1224,10 @@
         <v>11</v>
       </c>
       <c r="F37" t="n">
-        <v>1.10568343023252</v>
+        <v>1.06618966500723</v>
       </c>
       <c r="G37" t="n">
-        <v>1.08684520650413</v>
+        <v>1.06274706373558</v>
       </c>
     </row>
     <row r="38">
@@ -1247,10 +1247,10 @@
         <v>11</v>
       </c>
       <c r="F38" t="n">
-        <v>1.08643328859869</v>
+        <v>1.04854457908915</v>
       </c>
       <c r="G38" t="n">
-        <v>1.07382220565812</v>
+        <v>1.04791801971442</v>
       </c>
     </row>
     <row r="39">
@@ -1270,10 +1270,10 @@
         <v>11</v>
       </c>
       <c r="F39" t="n">
-        <v>1.0634192045297</v>
+        <v>1.08622877020257</v>
       </c>
       <c r="G39" t="n">
-        <v>1.04377097964197</v>
+        <v>1.08157764165531</v>
       </c>
     </row>
     <row r="40">
@@ -1293,10 +1293,10 @@
         <v>11</v>
       </c>
       <c r="F40" t="n">
-        <v>1.06489537772193</v>
+        <v>1.07153831257526</v>
       </c>
       <c r="G40" t="n">
-        <v>1.0461454069255</v>
+        <v>1.08450940593236</v>
       </c>
     </row>
     <row r="41">
@@ -1316,10 +1316,10 @@
         <v>11</v>
       </c>
       <c r="F41" t="n">
-        <v>1.10838285311528</v>
+        <v>1.06495313849747</v>
       </c>
       <c r="G41" t="n">
-        <v>1.10956363005529</v>
+        <v>1.0637399656263</v>
       </c>
     </row>
     <row r="42">
@@ -1339,10 +1339,10 @@
         <v>8</v>
       </c>
       <c r="F42" t="n">
-        <v>0.914</v>
+        <v>0.924</v>
       </c>
       <c r="G42" t="n">
-        <v>0.919</v>
+        <v>0.9295</v>
       </c>
     </row>
     <row r="43">
@@ -1362,10 +1362,10 @@
         <v>8</v>
       </c>
       <c r="F43" t="n">
-        <v>0.915</v>
+        <v>0.911</v>
       </c>
       <c r="G43" t="n">
-        <v>0.918</v>
+        <v>0.9235</v>
       </c>
     </row>
     <row r="44">
@@ -1385,10 +1385,10 @@
         <v>8</v>
       </c>
       <c r="F44" t="n">
-        <v>0.916</v>
+        <v>0.923</v>
       </c>
       <c r="G44" t="n">
-        <v>0.923</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="45">
@@ -1408,10 +1408,10 @@
         <v>8</v>
       </c>
       <c r="F45" t="n">
-        <v>0.916</v>
+        <v>0.9235</v>
       </c>
       <c r="G45" t="n">
-        <v>0.914</v>
+        <v>0.9295</v>
       </c>
     </row>
     <row r="46">
@@ -1431,10 +1431,10 @@
         <v>8</v>
       </c>
       <c r="F46" t="n">
-        <v>0.934</v>
+        <v>0.9225</v>
       </c>
       <c r="G46" t="n">
-        <v>0.924</v>
+        <v>0.9285</v>
       </c>
     </row>
     <row r="47">
@@ -1454,10 +1454,10 @@
         <v>8</v>
       </c>
       <c r="F47" t="n">
-        <v>0.92</v>
+        <v>0.914</v>
       </c>
       <c r="G47" t="n">
-        <v>0.921</v>
+        <v>0.9235</v>
       </c>
     </row>
     <row r="48">
@@ -1477,10 +1477,10 @@
         <v>8</v>
       </c>
       <c r="F48" t="n">
-        <v>0.924</v>
+        <v>0.906</v>
       </c>
       <c r="G48" t="n">
-        <v>0.927</v>
+        <v>0.917</v>
       </c>
     </row>
     <row r="49">
@@ -1500,10 +1500,10 @@
         <v>8</v>
       </c>
       <c r="F49" t="n">
-        <v>0.925</v>
+        <v>0.9305</v>
       </c>
       <c r="G49" t="n">
-        <v>0.92</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="50">
@@ -1526,7 +1526,7 @@
         <v>0.917</v>
       </c>
       <c r="G50" t="n">
-        <v>0.93</v>
+        <v>0.929</v>
       </c>
     </row>
     <row r="51">
@@ -1546,10 +1546,10 @@
         <v>8</v>
       </c>
       <c r="F51" t="n">
-        <v>0.925</v>
+        <v>0.919</v>
       </c>
       <c r="G51" t="n">
-        <v>0.925</v>
+        <v>0.9215</v>
       </c>
     </row>
     <row r="52">
@@ -1569,10 +1569,10 @@
         <v>9</v>
       </c>
       <c r="F52" t="n">
-        <v>3.90475292592533</v>
+        <v>3.85129343009238</v>
       </c>
       <c r="G52" t="n">
-        <v>3.87736348499874</v>
+        <v>3.91344454992062</v>
       </c>
     </row>
     <row r="53">
@@ -1592,10 +1592,10 @@
         <v>9</v>
       </c>
       <c r="F53" t="n">
-        <v>3.90682857374758</v>
+        <v>3.84769766512934</v>
       </c>
       <c r="G53" t="n">
-        <v>3.88576446564642</v>
+        <v>3.91864268704009</v>
       </c>
     </row>
     <row r="54">
@@ -1615,10 +1615,10 @@
         <v>9</v>
       </c>
       <c r="F54" t="n">
-        <v>3.906028759907</v>
+        <v>3.86302929753956</v>
       </c>
       <c r="G54" t="n">
-        <v>3.88801133334658</v>
+        <v>3.92640355832238</v>
       </c>
     </row>
     <row r="55">
@@ -1638,10 +1638,10 @@
         <v>9</v>
       </c>
       <c r="F55" t="n">
-        <v>3.9001979158943</v>
+        <v>3.86663011824248</v>
       </c>
       <c r="G55" t="n">
-        <v>3.89018339163392</v>
+        <v>3.93666468909963</v>
       </c>
     </row>
     <row r="56">
@@ -1661,10 +1661,10 @@
         <v>9</v>
       </c>
       <c r="F56" t="n">
-        <v>3.89228460119403</v>
+        <v>3.87054932396261</v>
       </c>
       <c r="G56" t="n">
-        <v>3.89272513983144</v>
+        <v>3.93208813419953</v>
       </c>
     </row>
     <row r="57">
@@ -1684,10 +1684,10 @@
         <v>9</v>
       </c>
       <c r="F57" t="n">
-        <v>3.89110693344097</v>
+        <v>3.86669966933059</v>
       </c>
       <c r="G57" t="n">
-        <v>3.88616150377453</v>
+        <v>3.94967154352456</v>
       </c>
     </row>
     <row r="58">
@@ -1707,10 +1707,10 @@
         <v>9</v>
       </c>
       <c r="F58" t="n">
-        <v>3.89659325002613</v>
+        <v>3.84991460316374</v>
       </c>
       <c r="G58" t="n">
-        <v>3.88792033880628</v>
+        <v>3.93169274306763</v>
       </c>
     </row>
     <row r="59">
@@ -1730,10 +1730,10 @@
         <v>9</v>
       </c>
       <c r="F59" t="n">
-        <v>3.92059284215387</v>
+        <v>3.87186946563414</v>
       </c>
       <c r="G59" t="n">
-        <v>3.88545216057356</v>
+        <v>3.96887769286486</v>
       </c>
     </row>
     <row r="60">
@@ -1753,10 +1753,10 @@
         <v>9</v>
       </c>
       <c r="F60" t="n">
-        <v>3.91731465491441</v>
+        <v>3.86046486574853</v>
       </c>
       <c r="G60" t="n">
-        <v>3.89195513594306</v>
+        <v>3.9646458556382</v>
       </c>
     </row>
     <row r="61">
@@ -1776,10 +1776,10 @@
         <v>9</v>
       </c>
       <c r="F61" t="n">
-        <v>3.91718218104368</v>
+        <v>3.84566311938082</v>
       </c>
       <c r="G61" t="n">
-        <v>3.90398174858094</v>
+        <v>3.93909788036056</v>
       </c>
     </row>
     <row r="62">
@@ -1799,10 +1799,10 @@
         <v>10</v>
       </c>
       <c r="F62" t="n">
-        <v>2.16115010603789</v>
+        <v>2.05328328429126</v>
       </c>
       <c r="G62" t="n">
-        <v>2.1296715323888</v>
+        <v>2.06351727025926</v>
       </c>
     </row>
     <row r="63">
@@ -1822,10 +1822,10 @@
         <v>10</v>
       </c>
       <c r="F63" t="n">
-        <v>2.16213746548488</v>
+        <v>2.17052380971776</v>
       </c>
       <c r="G63" t="n">
-        <v>2.13872281733434</v>
+        <v>2.12976158296005</v>
       </c>
     </row>
     <row r="64">
@@ -1845,10 +1845,10 @@
         <v>10</v>
       </c>
       <c r="F64" t="n">
-        <v>2.29991472451401</v>
+        <v>2.1080129316827</v>
       </c>
       <c r="G64" t="n">
-        <v>2.27307479295328</v>
+        <v>2.08542630507164</v>
       </c>
     </row>
     <row r="65">
@@ -1868,10 +1868,10 @@
         <v>10</v>
       </c>
       <c r="F65" t="n">
-        <v>2.2829682410527</v>
+        <v>2.07146425152469</v>
       </c>
       <c r="G65" t="n">
-        <v>2.2441935989373</v>
+        <v>2.05256790409392</v>
       </c>
     </row>
     <row r="66">
@@ -1891,10 +1891,10 @@
         <v>10</v>
       </c>
       <c r="F66" t="n">
-        <v>2.17192921433332</v>
+        <v>2.14057394182819</v>
       </c>
       <c r="G66" t="n">
-        <v>2.16285537857657</v>
+        <v>2.11567921278158</v>
       </c>
     </row>
     <row r="67">
@@ -1914,10 +1914,10 @@
         <v>10</v>
       </c>
       <c r="F67" t="n">
-        <v>2.17841109615162</v>
+        <v>2.19910080110906</v>
       </c>
       <c r="G67" t="n">
-        <v>2.14431360224383</v>
+        <v>2.17741400440392</v>
       </c>
     </row>
     <row r="68">
@@ -1937,10 +1937,10 @@
         <v>10</v>
       </c>
       <c r="F68" t="n">
-        <v>2.13433471810237</v>
+        <v>2.12553073662352</v>
       </c>
       <c r="G68" t="n">
-        <v>2.12508404526786</v>
+        <v>2.11398396283022</v>
       </c>
     </row>
     <row r="69">
@@ -1960,10 +1960,10 @@
         <v>10</v>
       </c>
       <c r="F69" t="n">
-        <v>2.2446546519133</v>
+        <v>2.07831431201295</v>
       </c>
       <c r="G69" t="n">
-        <v>2.22668718968348</v>
+        <v>2.04958839273359</v>
       </c>
     </row>
     <row r="70">
@@ -1983,10 +1983,10 @@
         <v>10</v>
       </c>
       <c r="F70" t="n">
-        <v>2.06390993862777</v>
+        <v>2.11005184685235</v>
       </c>
       <c r="G70" t="n">
-        <v>2.00894068635406</v>
+        <v>2.08198345746594</v>
       </c>
     </row>
     <row r="71">
@@ -2006,10 +2006,10 @@
         <v>10</v>
       </c>
       <c r="F71" t="n">
-        <v>2.2485676455552</v>
+        <v>2.13891785351942</v>
       </c>
       <c r="G71" t="n">
-        <v>2.17348478495386</v>
+        <v>2.11076443597137</v>
       </c>
     </row>
     <row r="72">
@@ -2029,10 +2029,10 @@
         <v>11</v>
       </c>
       <c r="F72" t="n">
-        <v>1.1013491651541</v>
+        <v>1.04909192910378</v>
       </c>
       <c r="G72" t="n">
-        <v>1.08727057704797</v>
+        <v>1.0456577576451</v>
       </c>
     </row>
     <row r="73">
@@ -2052,10 +2052,10 @@
         <v>11</v>
       </c>
       <c r="F73" t="n">
-        <v>1.12829426043436</v>
+        <v>1.0534331025286</v>
       </c>
       <c r="G73" t="n">
-        <v>1.09046632728645</v>
+        <v>1.06993239839386</v>
       </c>
     </row>
     <row r="74">
@@ -2075,10 +2075,10 @@
         <v>11</v>
       </c>
       <c r="F74" t="n">
-        <v>1.14562168351064</v>
+        <v>1.07850760994136</v>
       </c>
       <c r="G74" t="n">
-        <v>1.12721815748807</v>
+        <v>1.07290645776369</v>
       </c>
     </row>
     <row r="75">
@@ -2098,10 +2098,10 @@
         <v>11</v>
       </c>
       <c r="F75" t="n">
-        <v>1.08465414097434</v>
+        <v>1.05360729374975</v>
       </c>
       <c r="G75" t="n">
-        <v>1.07300326130311</v>
+        <v>1.04017948376737</v>
       </c>
     </row>
     <row r="76">
@@ -2121,10 +2121,10 @@
         <v>11</v>
       </c>
       <c r="F76" t="n">
-        <v>1.11975042554346</v>
+        <v>1.07221308776034</v>
       </c>
       <c r="G76" t="n">
-        <v>1.12562180993843</v>
+        <v>1.05901936143055</v>
       </c>
     </row>
     <row r="77">
@@ -2144,10 +2144,10 @@
         <v>11</v>
       </c>
       <c r="F77" t="n">
-        <v>1.1013248682562</v>
+        <v>1.10751336004059</v>
       </c>
       <c r="G77" t="n">
-        <v>1.110734630834</v>
+        <v>1.09184837756449</v>
       </c>
     </row>
     <row r="78">
@@ -2167,10 +2167,10 @@
         <v>11</v>
       </c>
       <c r="F78" t="n">
-        <v>1.06820281516804</v>
+        <v>1.07674735718742</v>
       </c>
       <c r="G78" t="n">
-        <v>1.08762346568793</v>
+        <v>1.08891625317137</v>
       </c>
     </row>
     <row r="79">
@@ -2190,10 +2190,10 @@
         <v>11</v>
       </c>
       <c r="F79" t="n">
-        <v>1.13305792906478</v>
+        <v>1.06877311270153</v>
       </c>
       <c r="G79" t="n">
-        <v>1.12267735062018</v>
+        <v>1.03724702571242</v>
       </c>
     </row>
     <row r="80">
@@ -2213,10 +2213,10 @@
         <v>11</v>
       </c>
       <c r="F80" t="n">
-        <v>1.05000470126014</v>
+        <v>1.09541506806625</v>
       </c>
       <c r="G80" t="n">
-        <v>1.03427669255037</v>
+        <v>1.09116036690366</v>
       </c>
     </row>
     <row r="81">
@@ -2236,10 +2236,10 @@
         <v>11</v>
       </c>
       <c r="F81" t="n">
-        <v>1.05965350881197</v>
+        <v>1.08751111431353</v>
       </c>
       <c r="G81" t="n">
-        <v>1.01357178559421</v>
+        <v>1.07816637873518</v>
       </c>
     </row>
     <row r="82">
@@ -2259,10 +2259,10 @@
         <v>8</v>
       </c>
       <c r="F82" t="n">
-        <v>0.934</v>
+        <v>0.903</v>
       </c>
       <c r="G82" t="n">
-        <v>0.917</v>
+        <v>0.899</v>
       </c>
     </row>
     <row r="83">
@@ -2282,10 +2282,10 @@
         <v>8</v>
       </c>
       <c r="F83" t="n">
-        <v>0.893</v>
+        <v>0.916</v>
       </c>
       <c r="G83" t="n">
-        <v>0.887</v>
+        <v>0.923</v>
       </c>
     </row>
     <row r="84">
@@ -2305,10 +2305,10 @@
         <v>8</v>
       </c>
       <c r="F84" t="n">
-        <v>0.92</v>
+        <v>0.915</v>
       </c>
       <c r="G84" t="n">
-        <v>0.914</v>
+        <v>0.9205</v>
       </c>
     </row>
     <row r="85">
@@ -2328,10 +2328,10 @@
         <v>8</v>
       </c>
       <c r="F85" t="n">
-        <v>0.922</v>
+        <v>0.9155</v>
       </c>
       <c r="G85" t="n">
-        <v>0.911</v>
+        <v>0.9245</v>
       </c>
     </row>
     <row r="86">
@@ -2351,7 +2351,7 @@
         <v>8</v>
       </c>
       <c r="F86" t="n">
-        <v>0.909</v>
+        <v>0.9055</v>
       </c>
       <c r="G86" t="n">
         <v>0.907</v>
@@ -2374,7 +2374,7 @@
         <v>8</v>
       </c>
       <c r="F87" t="n">
-        <v>0.912</v>
+        <v>0.905</v>
       </c>
       <c r="G87" t="n">
         <v>0.919</v>
@@ -2397,10 +2397,10 @@
         <v>8</v>
       </c>
       <c r="F88" t="n">
-        <v>0.915</v>
+        <v>0.909</v>
       </c>
       <c r="G88" t="n">
-        <v>0.906</v>
+        <v>0.9115</v>
       </c>
     </row>
     <row r="89">
@@ -2420,10 +2420,10 @@
         <v>8</v>
       </c>
       <c r="F89" t="n">
-        <v>0.935</v>
+        <v>0.912</v>
       </c>
       <c r="G89" t="n">
-        <v>0.917</v>
+        <v>0.9175</v>
       </c>
     </row>
     <row r="90">
@@ -2443,10 +2443,10 @@
         <v>8</v>
       </c>
       <c r="F90" t="n">
-        <v>0.925</v>
+        <v>0.92</v>
       </c>
       <c r="G90" t="n">
-        <v>0.928</v>
+        <v>0.9295</v>
       </c>
     </row>
     <row r="91">
@@ -2466,10 +2466,10 @@
         <v>8</v>
       </c>
       <c r="F91" t="n">
-        <v>0.921</v>
+        <v>0.9135</v>
       </c>
       <c r="G91" t="n">
-        <v>0.918</v>
+        <v>0.927</v>
       </c>
     </row>
     <row r="92">
@@ -2489,10 +2489,10 @@
         <v>9</v>
       </c>
       <c r="F92" t="n">
-        <v>3.91503051538153</v>
+        <v>3.85401338986797</v>
       </c>
       <c r="G92" t="n">
-        <v>3.85916394624418</v>
+        <v>3.89266508048807</v>
       </c>
     </row>
     <row r="93">
@@ -2512,10 +2512,10 @@
         <v>9</v>
       </c>
       <c r="F93" t="n">
-        <v>3.9028631879237</v>
+        <v>3.86454029081578</v>
       </c>
       <c r="G93" t="n">
-        <v>3.8621082148618</v>
+        <v>3.93603132470591</v>
       </c>
     </row>
     <row r="94">
@@ -2535,10 +2535,10 @@
         <v>9</v>
       </c>
       <c r="F94" t="n">
-        <v>3.90516805346927</v>
+        <v>3.86213913384121</v>
       </c>
       <c r="G94" t="n">
-        <v>3.90161285610696</v>
+        <v>3.94211955015421</v>
       </c>
     </row>
     <row r="95">
@@ -2558,10 +2558,10 @@
         <v>9</v>
       </c>
       <c r="F95" t="n">
-        <v>3.90700003423936</v>
+        <v>3.85042788095164</v>
       </c>
       <c r="G95" t="n">
-        <v>3.88797644781059</v>
+        <v>3.94052524924179</v>
       </c>
     </row>
     <row r="96">
@@ -2581,10 +2581,10 @@
         <v>9</v>
       </c>
       <c r="F96" t="n">
-        <v>3.92622162067564</v>
+        <v>3.86074796018043</v>
       </c>
       <c r="G96" t="n">
-        <v>3.87758758768883</v>
+        <v>3.9385002953415</v>
       </c>
     </row>
     <row r="97">
@@ -2604,10 +2604,10 @@
         <v>9</v>
       </c>
       <c r="F97" t="n">
-        <v>3.90512694368578</v>
+        <v>3.84475126734115</v>
       </c>
       <c r="G97" t="n">
-        <v>3.86907518076814</v>
+        <v>3.93821942781282</v>
       </c>
     </row>
     <row r="98">
@@ -2627,10 +2627,10 @@
         <v>9</v>
       </c>
       <c r="F98" t="n">
-        <v>3.92706984424572</v>
+        <v>3.86300020208039</v>
       </c>
       <c r="G98" t="n">
-        <v>3.87096777401957</v>
+        <v>3.94875791568214</v>
       </c>
     </row>
     <row r="99">
@@ -2650,10 +2650,10 @@
         <v>9</v>
       </c>
       <c r="F99" t="n">
-        <v>3.92733586874634</v>
+        <v>3.85259823105928</v>
       </c>
       <c r="G99" t="n">
-        <v>3.86774003990512</v>
+        <v>3.95148081253334</v>
       </c>
     </row>
     <row r="100">
@@ -2673,10 +2673,10 @@
         <v>9</v>
       </c>
       <c r="F100" t="n">
-        <v>3.89345213637454</v>
+        <v>3.84708473364384</v>
       </c>
       <c r="G100" t="n">
-        <v>3.86073032157639</v>
+        <v>3.95124176174965</v>
       </c>
     </row>
     <row r="101">
@@ -2696,10 +2696,10 @@
         <v>9</v>
       </c>
       <c r="F101" t="n">
-        <v>3.92874993260799</v>
+        <v>3.84511424643736</v>
       </c>
       <c r="G101" t="n">
-        <v>3.8881139732535</v>
+        <v>3.94597805248569</v>
       </c>
     </row>
     <row r="102">
@@ -2719,10 +2719,10 @@
         <v>10</v>
       </c>
       <c r="F102" t="n">
-        <v>2.25007216728116</v>
+        <v>2.13517826942737</v>
       </c>
       <c r="G102" t="n">
-        <v>2.26047309601743</v>
+        <v>2.13641616447973</v>
       </c>
     </row>
     <row r="103">
@@ -2742,10 +2742,10 @@
         <v>10</v>
       </c>
       <c r="F103" t="n">
-        <v>2.24556470303422</v>
+        <v>2.21128059504652</v>
       </c>
       <c r="G103" t="n">
-        <v>2.23015570779088</v>
+        <v>2.19422796158566</v>
       </c>
     </row>
     <row r="104">
@@ -2765,10 +2765,10 @@
         <v>10</v>
       </c>
       <c r="F104" t="n">
-        <v>2.15750780290633</v>
+        <v>2.14663895341478</v>
       </c>
       <c r="G104" t="n">
-        <v>2.13395062343338</v>
+        <v>2.1280053111807</v>
       </c>
     </row>
     <row r="105">
@@ -2788,10 +2788,10 @@
         <v>10</v>
       </c>
       <c r="F105" t="n">
-        <v>2.03404452548587</v>
+        <v>2.09631714992725</v>
       </c>
       <c r="G105" t="n">
-        <v>2.0255502234963</v>
+        <v>2.08027420176439</v>
       </c>
     </row>
     <row r="106">
@@ -2811,10 +2811,10 @@
         <v>10</v>
       </c>
       <c r="F106" t="n">
-        <v>2.22503349371362</v>
+        <v>2.18207685473901</v>
       </c>
       <c r="G106" t="n">
-        <v>2.17268874593756</v>
+        <v>2.16136401974852</v>
       </c>
     </row>
     <row r="107">
@@ -2834,10 +2834,10 @@
         <v>10</v>
       </c>
       <c r="F107" t="n">
-        <v>2.09762973402522</v>
+        <v>2.10959362890452</v>
       </c>
       <c r="G107" t="n">
-        <v>2.08349311968606</v>
+        <v>2.09744584834143</v>
       </c>
     </row>
     <row r="108">
@@ -2857,10 +2857,10 @@
         <v>10</v>
       </c>
       <c r="F108" t="n">
-        <v>2.12217466770686</v>
+        <v>2.21358354431203</v>
       </c>
       <c r="G108" t="n">
-        <v>2.09167176663212</v>
+        <v>2.19178516493151</v>
       </c>
     </row>
     <row r="109">
@@ -2880,10 +2880,10 @@
         <v>10</v>
       </c>
       <c r="F109" t="n">
-        <v>1.98574968146073</v>
+        <v>2.22481914447994</v>
       </c>
       <c r="G109" t="n">
-        <v>1.9847134229859</v>
+        <v>2.21243956570863</v>
       </c>
     </row>
     <row r="110">
@@ -2903,10 +2903,10 @@
         <v>10</v>
       </c>
       <c r="F110" t="n">
-        <v>2.14868896548778</v>
+        <v>2.11434036523037</v>
       </c>
       <c r="G110" t="n">
-        <v>2.10458435002653</v>
+        <v>2.11057826861785</v>
       </c>
     </row>
     <row r="111">
@@ -2926,10 +2926,10 @@
         <v>10</v>
       </c>
       <c r="F111" t="n">
-        <v>2.00799070231092</v>
+        <v>2.10662367564021</v>
       </c>
       <c r="G111" t="n">
-        <v>2.01135692230034</v>
+        <v>2.09885513071312</v>
       </c>
     </row>
     <row r="112">
@@ -2949,10 +2949,10 @@
         <v>11</v>
       </c>
       <c r="F112" t="n">
-        <v>1.10346558825965</v>
+        <v>1.07636825049419</v>
       </c>
       <c r="G112" t="n">
-        <v>1.1024046487002</v>
+        <v>1.07455389205087</v>
       </c>
     </row>
     <row r="113">
@@ -2972,10 +2972,10 @@
         <v>11</v>
       </c>
       <c r="F113" t="n">
-        <v>1.07015586858027</v>
+        <v>1.13410451702552</v>
       </c>
       <c r="G113" t="n">
-        <v>1.08827694618625</v>
+        <v>1.14156750883811</v>
       </c>
     </row>
     <row r="114">
@@ -2995,10 +2995,10 @@
         <v>11</v>
       </c>
       <c r="F114" t="n">
-        <v>1.13420271025235</v>
+        <v>1.05766292523061</v>
       </c>
       <c r="G114" t="n">
-        <v>1.09484700398641</v>
+        <v>1.04719558319708</v>
       </c>
     </row>
     <row r="115">
@@ -3018,10 +3018,10 @@
         <v>11</v>
       </c>
       <c r="F115" t="n">
-        <v>1.02567767402899</v>
+        <v>1.10679780559028</v>
       </c>
       <c r="G115" t="n">
-        <v>1.03717669513475</v>
+        <v>1.10567131973388</v>
       </c>
     </row>
     <row r="116">
@@ -3041,10 +3041,10 @@
         <v>11</v>
       </c>
       <c r="F116" t="n">
-        <v>1.10578523588968</v>
+        <v>1.06122736988619</v>
       </c>
       <c r="G116" t="n">
-        <v>1.09893606573153</v>
+        <v>1.06407058885679</v>
       </c>
     </row>
     <row r="117">
@@ -3064,10 +3064,10 @@
         <v>11</v>
       </c>
       <c r="F117" t="n">
-        <v>1.11110575901586</v>
+        <v>1.07581322275906</v>
       </c>
       <c r="G117" t="n">
-        <v>1.0739572364507</v>
+        <v>1.06609184013049</v>
       </c>
     </row>
     <row r="118">
@@ -3087,10 +3087,10 @@
         <v>11</v>
       </c>
       <c r="F118" t="n">
-        <v>1.08580244628136</v>
+        <v>1.09092713617322</v>
       </c>
       <c r="G118" t="n">
-        <v>1.10463968051041</v>
+        <v>1.09351036163571</v>
       </c>
     </row>
     <row r="119">
@@ -3110,10 +3110,10 @@
         <v>11</v>
       </c>
       <c r="F119" t="n">
-        <v>1.0422115946662</v>
+        <v>1.12325613153302</v>
       </c>
       <c r="G119" t="n">
-        <v>1.04546091507712</v>
+        <v>1.10269300030977</v>
       </c>
     </row>
     <row r="120">
@@ -3133,10 +3133,10 @@
         <v>11</v>
       </c>
       <c r="F120" t="n">
-        <v>1.13791923170335</v>
+        <v>1.06183523424148</v>
       </c>
       <c r="G120" t="n">
-        <v>1.12267603730992</v>
+        <v>1.07906891101709</v>
       </c>
     </row>
     <row r="121">
@@ -3156,10 +3156,10 @@
         <v>11</v>
       </c>
       <c r="F121" t="n">
-        <v>1.01805504346174</v>
+        <v>1.08014615131685</v>
       </c>
       <c r="G121" t="n">
-        <v>1.02704377430124</v>
+        <v>1.07355967651059</v>
       </c>
     </row>
     <row r="122">
@@ -3179,10 +3179,10 @@
         <v>8</v>
       </c>
       <c r="F122" t="n">
-        <v>0.919</v>
+        <v>0.929</v>
       </c>
       <c r="G122" t="n">
-        <v>0.909</v>
+        <v>0.9345</v>
       </c>
     </row>
     <row r="123">
@@ -3202,10 +3202,10 @@
         <v>8</v>
       </c>
       <c r="F123" t="n">
-        <v>0.929</v>
+        <v>0.9225</v>
       </c>
       <c r="G123" t="n">
-        <v>0.932</v>
+        <v>0.9235</v>
       </c>
     </row>
     <row r="124">
@@ -3225,10 +3225,10 @@
         <v>8</v>
       </c>
       <c r="F124" t="n">
-        <v>0.939</v>
+        <v>0.913</v>
       </c>
       <c r="G124" t="n">
-        <v>0.931</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="125">
@@ -3248,10 +3248,10 @@
         <v>8</v>
       </c>
       <c r="F125" t="n">
-        <v>0.931</v>
+        <v>0.9275</v>
       </c>
       <c r="G125" t="n">
-        <v>0.932</v>
+        <v>0.9395</v>
       </c>
     </row>
     <row r="126">
@@ -3271,10 +3271,10 @@
         <v>8</v>
       </c>
       <c r="F126" t="n">
-        <v>0.922</v>
+        <v>0.934</v>
       </c>
       <c r="G126" t="n">
-        <v>0.932</v>
+        <v>0.9385</v>
       </c>
     </row>
     <row r="127">
@@ -3294,10 +3294,10 @@
         <v>8</v>
       </c>
       <c r="F127" t="n">
-        <v>0.924</v>
+        <v>0.919</v>
       </c>
       <c r="G127" t="n">
-        <v>0.921</v>
+        <v>0.926</v>
       </c>
     </row>
     <row r="128">
@@ -3317,10 +3317,10 @@
         <v>8</v>
       </c>
       <c r="F128" t="n">
-        <v>0.921</v>
+        <v>0.927</v>
       </c>
       <c r="G128" t="n">
-        <v>0.924</v>
+        <v>0.9345</v>
       </c>
     </row>
     <row r="129">
@@ -3340,10 +3340,10 @@
         <v>8</v>
       </c>
       <c r="F129" t="n">
-        <v>0.926</v>
+        <v>0.922</v>
       </c>
       <c r="G129" t="n">
-        <v>0.931</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="130">
@@ -3363,10 +3363,10 @@
         <v>8</v>
       </c>
       <c r="F130" t="n">
-        <v>0.934</v>
+        <v>0.917</v>
       </c>
       <c r="G130" t="n">
-        <v>0.925</v>
+        <v>0.918</v>
       </c>
     </row>
     <row r="131">
@@ -3386,10 +3386,10 @@
         <v>8</v>
       </c>
       <c r="F131" t="n">
-        <v>0.915</v>
+        <v>0.924</v>
       </c>
       <c r="G131" t="n">
-        <v>0.919</v>
+        <v>0.933</v>
       </c>
     </row>
     <row r="132">
@@ -3409,10 +3409,10 @@
         <v>9</v>
       </c>
       <c r="F132" t="n">
-        <v>3.92185980756097</v>
+        <v>3.89790090317122</v>
       </c>
       <c r="G132" t="n">
-        <v>3.86780057517158</v>
+        <v>3.93337403082246</v>
       </c>
     </row>
     <row r="133">
@@ -3432,10 +3432,10 @@
         <v>9</v>
       </c>
       <c r="F133" t="n">
-        <v>3.94263379902079</v>
+        <v>3.90226745744499</v>
       </c>
       <c r="G133" t="n">
-        <v>3.9034508576797</v>
+        <v>3.95916318691708</v>
       </c>
     </row>
     <row r="134">
@@ -3455,10 +3455,10 @@
         <v>9</v>
       </c>
       <c r="F134" t="n">
-        <v>3.94510814178024</v>
+        <v>3.88629350053231</v>
       </c>
       <c r="G134" t="n">
-        <v>3.91999237394998</v>
+        <v>3.94781879319644</v>
       </c>
     </row>
     <row r="135">
@@ -3478,10 +3478,10 @@
         <v>9</v>
       </c>
       <c r="F135" t="n">
-        <v>3.92462120100593</v>
+        <v>3.89991363743055</v>
       </c>
       <c r="G135" t="n">
-        <v>3.92096666935138</v>
+        <v>3.96015965893662</v>
       </c>
     </row>
     <row r="136">
@@ -3501,10 +3501,10 @@
         <v>9</v>
       </c>
       <c r="F136" t="n">
-        <v>3.9031525068292</v>
+        <v>3.8925502956343</v>
       </c>
       <c r="G136" t="n">
-        <v>3.91236288473529</v>
+        <v>3.95895027499847</v>
       </c>
     </row>
     <row r="137">
@@ -3524,10 +3524,10 @@
         <v>9</v>
       </c>
       <c r="F137" t="n">
-        <v>3.93918777082474</v>
+        <v>3.89043243476799</v>
       </c>
       <c r="G137" t="n">
-        <v>3.9226297983231</v>
+        <v>3.95951785002361</v>
       </c>
     </row>
     <row r="138">
@@ -3547,10 +3547,10 @@
         <v>9</v>
       </c>
       <c r="F138" t="n">
-        <v>3.9559000399966</v>
+        <v>3.88644862887643</v>
       </c>
       <c r="G138" t="n">
-        <v>3.92547602453235</v>
+        <v>3.95008461543147</v>
       </c>
     </row>
     <row r="139">
@@ -3570,10 +3570,10 @@
         <v>9</v>
       </c>
       <c r="F139" t="n">
-        <v>3.95172777037146</v>
+        <v>3.91286137731984</v>
       </c>
       <c r="G139" t="n">
-        <v>3.92359989156703</v>
+        <v>3.96160406351483</v>
       </c>
     </row>
     <row r="140">
@@ -3593,10 +3593,10 @@
         <v>9</v>
       </c>
       <c r="F140" t="n">
-        <v>3.93025797600557</v>
+        <v>3.90159479611461</v>
       </c>
       <c r="G140" t="n">
-        <v>3.93710535693066</v>
+        <v>3.98030085282583</v>
       </c>
     </row>
     <row r="141">
@@ -3616,10 +3616,10 @@
         <v>9</v>
       </c>
       <c r="F141" t="n">
-        <v>3.95133323308764</v>
+        <v>3.91759840553478</v>
       </c>
       <c r="G141" t="n">
-        <v>3.94089288832229</v>
+        <v>3.97105069041981</v>
       </c>
     </row>
     <row r="142">
@@ -3639,10 +3639,10 @@
         <v>10</v>
       </c>
       <c r="F142" t="n">
-        <v>2.11097077192123</v>
+        <v>2.0693832434634</v>
       </c>
       <c r="G142" t="n">
-        <v>2.0931904742548</v>
+        <v>2.05096719641516</v>
       </c>
     </row>
     <row r="143">
@@ -3662,10 +3662,10 @@
         <v>10</v>
       </c>
       <c r="F143" t="n">
-        <v>2.0460994119489</v>
+        <v>2.11806401244408</v>
       </c>
       <c r="G143" t="n">
-        <v>2.05881551347335</v>
+        <v>2.10098222869529</v>
       </c>
     </row>
     <row r="144">
@@ -3685,10 +3685,10 @@
         <v>10</v>
       </c>
       <c r="F144" t="n">
-        <v>2.14993268808318</v>
+        <v>2.14364509755677</v>
       </c>
       <c r="G144" t="n">
-        <v>2.15856367560328</v>
+        <v>2.11285447921794</v>
       </c>
     </row>
     <row r="145">
@@ -3708,10 +3708,10 @@
         <v>10</v>
       </c>
       <c r="F145" t="n">
-        <v>2.0913723451791</v>
+        <v>2.09378914023716</v>
       </c>
       <c r="G145" t="n">
-        <v>2.09282211426698</v>
+        <v>2.09184540576159</v>
       </c>
     </row>
     <row r="146">
@@ -3731,10 +3731,10 @@
         <v>10</v>
       </c>
       <c r="F146" t="n">
-        <v>2.20094568801706</v>
+        <v>2.01845326132171</v>
       </c>
       <c r="G146" t="n">
-        <v>2.16043446760696</v>
+        <v>2.00222113060117</v>
       </c>
     </row>
     <row r="147">
@@ -3754,10 +3754,10 @@
         <v>10</v>
       </c>
       <c r="F147" t="n">
-        <v>2.10533363024355</v>
+        <v>2.15809464481255</v>
       </c>
       <c r="G147" t="n">
-        <v>2.06932007522754</v>
+        <v>2.14008112148413</v>
       </c>
     </row>
     <row r="148">
@@ -3777,10 +3777,10 @@
         <v>10</v>
       </c>
       <c r="F148" t="n">
-        <v>2.30181031243177</v>
+        <v>2.0554497793468</v>
       </c>
       <c r="G148" t="n">
-        <v>2.28840636475225</v>
+        <v>2.05536572687835</v>
       </c>
     </row>
     <row r="149">
@@ -3800,10 +3800,10 @@
         <v>10</v>
       </c>
       <c r="F149" t="n">
-        <v>2.08307157427673</v>
+        <v>2.05767983228561</v>
       </c>
       <c r="G149" t="n">
-        <v>2.03286418455205</v>
+        <v>2.01980495980141</v>
       </c>
     </row>
     <row r="150">
@@ -3823,10 +3823,10 @@
         <v>10</v>
       </c>
       <c r="F150" t="n">
-        <v>2.0094774659796</v>
+        <v>2.1549825299026</v>
       </c>
       <c r="G150" t="n">
-        <v>1.95870709811422</v>
+        <v>2.14188245725923</v>
       </c>
     </row>
     <row r="151">
@@ -3846,10 +3846,10 @@
         <v>10</v>
       </c>
       <c r="F151" t="n">
-        <v>2.24274808557376</v>
+        <v>2.02391665829868</v>
       </c>
       <c r="G151" t="n">
-        <v>2.24470085781396</v>
+        <v>2.00386252178466</v>
       </c>
     </row>
     <row r="152">
@@ -3869,10 +3869,10 @@
         <v>11</v>
       </c>
       <c r="F152" t="n">
-        <v>1.08949925157021</v>
+        <v>1.03741553223926</v>
       </c>
       <c r="G152" t="n">
-        <v>1.07490108680047</v>
+        <v>1.05537715976378</v>
       </c>
     </row>
     <row r="153">
@@ -3892,10 +3892,10 @@
         <v>11</v>
       </c>
       <c r="F153" t="n">
-        <v>1.06598636384698</v>
+        <v>1.06824660549351</v>
       </c>
       <c r="G153" t="n">
-        <v>1.06334569638071</v>
+        <v>1.05812748338162</v>
       </c>
     </row>
     <row r="154">
@@ -3915,10 +3915,10 @@
         <v>11</v>
       </c>
       <c r="F154" t="n">
-        <v>1.06706536117665</v>
+        <v>1.08897326214186</v>
       </c>
       <c r="G154" t="n">
-        <v>1.08697181713091</v>
+        <v>1.09302600025157</v>
       </c>
     </row>
     <row r="155">
@@ -3938,10 +3938,10 @@
         <v>11</v>
       </c>
       <c r="F155" t="n">
-        <v>1.07319513327987</v>
+        <v>1.05320719516011</v>
       </c>
       <c r="G155" t="n">
-        <v>1.08523325440215</v>
+        <v>1.04657292376505</v>
       </c>
     </row>
     <row r="156">
@@ -3961,10 +3961,10 @@
         <v>11</v>
       </c>
       <c r="F156" t="n">
-        <v>1.08399992301344</v>
+        <v>1.07771725221748</v>
       </c>
       <c r="G156" t="n">
-        <v>1.08558209211813</v>
+        <v>1.07270696575503</v>
       </c>
     </row>
     <row r="157">
@@ -3984,10 +3984,10 @@
         <v>11</v>
       </c>
       <c r="F157" t="n">
-        <v>1.07418104519606</v>
+        <v>1.08445944901999</v>
       </c>
       <c r="G157" t="n">
-        <v>1.07434063245952</v>
+        <v>1.09064366803374</v>
       </c>
     </row>
     <row r="158">
@@ -4007,10 +4007,10 @@
         <v>11</v>
       </c>
       <c r="F158" t="n">
-        <v>1.12693464279374</v>
+        <v>1.0400876227781</v>
       </c>
       <c r="G158" t="n">
-        <v>1.13424748920076</v>
+        <v>1.04671775288841</v>
       </c>
     </row>
     <row r="159">
@@ -4030,10 +4030,10 @@
         <v>11</v>
       </c>
       <c r="F159" t="n">
-        <v>0.987794482819818</v>
+        <v>1.06624897411111</v>
       </c>
       <c r="G159" t="n">
-        <v>0.953526779255747</v>
+        <v>1.04206436895362</v>
       </c>
     </row>
     <row r="160">
@@ -4053,10 +4053,10 @@
         <v>11</v>
       </c>
       <c r="F160" t="n">
-        <v>0.962174011067912</v>
+        <v>1.03681616819038</v>
       </c>
       <c r="G160" t="n">
-        <v>0.985948953457919</v>
+        <v>1.01949397352533</v>
       </c>
     </row>
     <row r="161">
@@ -4076,10 +4076,10 @@
         <v>11</v>
       </c>
       <c r="F161" t="n">
-        <v>1.107422763351</v>
+        <v>1.05088094727337</v>
       </c>
       <c r="G161" t="n">
-        <v>1.09929188271929</v>
+        <v>1.05124937471561</v>
       </c>
     </row>
   </sheetData>

--- a/DGP3.xlsx
+++ b/DGP3.xlsx
@@ -377,7 +377,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/DGP3.xlsx
+++ b/DGP3.xlsx
@@ -407,10 +407,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -419,10 +419,10 @@
         <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9065</v>
+        <v>0.9245</v>
       </c>
       <c r="G2" t="n">
-        <v>0.913</v>
+        <v>0.9385</v>
       </c>
     </row>
     <row r="3">
@@ -430,10 +430,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
@@ -442,10 +442,10 @@
         <v>8</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8955</v>
+        <v>0.9205</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9055</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="4">
@@ -453,10 +453,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
         <v>3</v>
@@ -465,10 +465,10 @@
         <v>8</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9075</v>
+        <v>0.913</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9185</v>
+        <v>0.921</v>
       </c>
     </row>
     <row r="5">
@@ -476,10 +476,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C5" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
         <v>4</v>
@@ -488,10 +488,10 @@
         <v>8</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9145</v>
+        <v>0.9075</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9225</v>
+        <v>0.9175</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
         <v>5</v>
@@ -511,10 +511,10 @@
         <v>8</v>
       </c>
       <c r="F6" t="n">
-        <v>0.922</v>
+        <v>0.915</v>
       </c>
       <c r="G6" t="n">
-        <v>0.93</v>
+        <v>0.9265</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
         <v>6</v>
@@ -534,10 +534,10 @@
         <v>8</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9125</v>
+        <v>0.903</v>
       </c>
       <c r="G7" t="n">
-        <v>0.926</v>
+        <v>0.9185</v>
       </c>
     </row>
     <row r="8">
@@ -545,10 +545,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D8" t="n">
         <v>7</v>
@@ -557,10 +557,10 @@
         <v>8</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9075</v>
+        <v>0.9175</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9175</v>
+        <v>0.933</v>
       </c>
     </row>
     <row r="9">
@@ -568,10 +568,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C9" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D9" t="n">
         <v>8</v>
@@ -580,10 +580,10 @@
         <v>8</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9085</v>
+        <v>0.9065</v>
       </c>
       <c r="G9" t="n">
-        <v>0.927</v>
+        <v>0.9135</v>
       </c>
     </row>
     <row r="10">
@@ -591,10 +591,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D10" t="n">
         <v>9</v>
@@ -603,10 +603,10 @@
         <v>8</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9245</v>
+        <v>0.91</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9265</v>
+        <v>0.9215</v>
       </c>
     </row>
     <row r="11">
@@ -614,10 +614,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C11" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D11" t="n">
         <v>10</v>
@@ -626,7 +626,7 @@
         <v>8</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9255</v>
+        <v>0.918</v>
       </c>
       <c r="G11" t="n">
         <v>0.929</v>
@@ -637,10 +637,10 @@
         <v>7</v>
       </c>
       <c r="B12" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -649,10 +649,10 @@
         <v>9</v>
       </c>
       <c r="F12" t="n">
-        <v>3.80807977216105</v>
+        <v>3.82236996079459</v>
       </c>
       <c r="G12" t="n">
-        <v>3.88611854589529</v>
+        <v>3.89384294205031</v>
       </c>
     </row>
     <row r="13">
@@ -660,10 +660,10 @@
         <v>7</v>
       </c>
       <c r="B13" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D13" t="n">
         <v>2</v>
@@ -672,10 +672,10 @@
         <v>9</v>
       </c>
       <c r="F13" t="n">
-        <v>3.79786831551208</v>
+        <v>3.82746311353449</v>
       </c>
       <c r="G13" t="n">
-        <v>3.90642404541595</v>
+        <v>3.9064593190698</v>
       </c>
     </row>
     <row r="14">
@@ -683,10 +683,10 @@
         <v>7</v>
       </c>
       <c r="B14" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D14" t="n">
         <v>3</v>
@@ -695,10 +695,10 @@
         <v>9</v>
       </c>
       <c r="F14" t="n">
-        <v>3.80741867955449</v>
+        <v>3.82920290078015</v>
       </c>
       <c r="G14" t="n">
-        <v>3.92468622093752</v>
+        <v>3.9401211113033</v>
       </c>
     </row>
     <row r="15">
@@ -706,10 +706,10 @@
         <v>7</v>
       </c>
       <c r="B15" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C15" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D15" t="n">
         <v>4</v>
@@ -718,10 +718,10 @@
         <v>9</v>
       </c>
       <c r="F15" t="n">
-        <v>3.82796407964198</v>
+        <v>3.82794726645731</v>
       </c>
       <c r="G15" t="n">
-        <v>3.91962088978801</v>
+        <v>3.93690680993059</v>
       </c>
     </row>
     <row r="16">
@@ -729,10 +729,10 @@
         <v>7</v>
       </c>
       <c r="B16" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C16" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D16" t="n">
         <v>5</v>
@@ -741,10 +741,10 @@
         <v>9</v>
       </c>
       <c r="F16" t="n">
-        <v>3.80000008591656</v>
+        <v>3.81448256932837</v>
       </c>
       <c r="G16" t="n">
-        <v>3.92041344729269</v>
+        <v>3.93251479861786</v>
       </c>
     </row>
     <row r="17">
@@ -752,10 +752,10 @@
         <v>7</v>
       </c>
       <c r="B17" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C17" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D17" t="n">
         <v>6</v>
@@ -764,10 +764,10 @@
         <v>9</v>
       </c>
       <c r="F17" t="n">
-        <v>3.80129411188103</v>
+        <v>3.82029677167922</v>
       </c>
       <c r="G17" t="n">
-        <v>3.92596950556667</v>
+        <v>3.94130682046937</v>
       </c>
     </row>
     <row r="18">
@@ -775,10 +775,10 @@
         <v>7</v>
       </c>
       <c r="B18" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C18" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D18" t="n">
         <v>7</v>
@@ -787,10 +787,10 @@
         <v>9</v>
       </c>
       <c r="F18" t="n">
-        <v>3.79323942673562</v>
+        <v>3.82664772337675</v>
       </c>
       <c r="G18" t="n">
-        <v>3.91521009805833</v>
+        <v>3.93243965561218</v>
       </c>
     </row>
     <row r="19">
@@ -798,10 +798,10 @@
         <v>7</v>
       </c>
       <c r="B19" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C19" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D19" t="n">
         <v>8</v>
@@ -810,10 +810,10 @@
         <v>9</v>
       </c>
       <c r="F19" t="n">
-        <v>3.79168462747169</v>
+        <v>3.81619751986391</v>
       </c>
       <c r="G19" t="n">
-        <v>3.9376897372345</v>
+        <v>3.93708631250816</v>
       </c>
     </row>
     <row r="20">
@@ -821,10 +821,10 @@
         <v>7</v>
       </c>
       <c r="B20" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C20" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D20" t="n">
         <v>9</v>
@@ -833,10 +833,10 @@
         <v>9</v>
       </c>
       <c r="F20" t="n">
-        <v>3.80376316040926</v>
+        <v>3.83283660979072</v>
       </c>
       <c r="G20" t="n">
-        <v>3.93122753971301</v>
+        <v>3.94094552204403</v>
       </c>
     </row>
     <row r="21">
@@ -844,10 +844,10 @@
         <v>7</v>
       </c>
       <c r="B21" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C21" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D21" t="n">
         <v>10</v>
@@ -856,10 +856,10 @@
         <v>9</v>
       </c>
       <c r="F21" t="n">
-        <v>3.8319809696632</v>
+        <v>3.82711392462875</v>
       </c>
       <c r="G21" t="n">
-        <v>3.92372582179529</v>
+        <v>3.93380671692582</v>
       </c>
     </row>
     <row r="22">
@@ -867,10 +867,10 @@
         <v>7</v>
       </c>
       <c r="B22" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C22" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -879,10 +879,10 @@
         <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>2.16050579871966</v>
+        <v>2.02466575081153</v>
       </c>
       <c r="G22" t="n">
-        <v>2.13935618218587</v>
+        <v>1.99689776734275</v>
       </c>
     </row>
     <row r="23">
@@ -890,10 +890,10 @@
         <v>7</v>
       </c>
       <c r="B23" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C23" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D23" t="n">
         <v>2</v>
@@ -902,10 +902,10 @@
         <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>2.15312909294355</v>
+        <v>2.1848799181894</v>
       </c>
       <c r="G23" t="n">
-        <v>2.12821972742738</v>
+        <v>2.15381645154375</v>
       </c>
     </row>
     <row r="24">
@@ -913,10 +913,10 @@
         <v>7</v>
       </c>
       <c r="B24" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C24" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D24" t="n">
         <v>3</v>
@@ -925,10 +925,10 @@
         <v>10</v>
       </c>
       <c r="F24" t="n">
-        <v>2.14052198095468</v>
+        <v>2.12068987851119</v>
       </c>
       <c r="G24" t="n">
-        <v>2.11777828602462</v>
+        <v>2.09810675333484</v>
       </c>
     </row>
     <row r="25">
@@ -936,10 +936,10 @@
         <v>7</v>
       </c>
       <c r="B25" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C25" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D25" t="n">
         <v>4</v>
@@ -948,10 +948,10 @@
         <v>10</v>
       </c>
       <c r="F25" t="n">
-        <v>2.1053596127084</v>
+        <v>2.19572170280937</v>
       </c>
       <c r="G25" t="n">
-        <v>2.08735429335072</v>
+        <v>2.18123970486063</v>
       </c>
     </row>
     <row r="26">
@@ -959,10 +959,10 @@
         <v>7</v>
       </c>
       <c r="B26" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C26" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D26" t="n">
         <v>5</v>
@@ -971,10 +971,10 @@
         <v>10</v>
       </c>
       <c r="F26" t="n">
-        <v>2.11449426916393</v>
+        <v>2.15880730609098</v>
       </c>
       <c r="G26" t="n">
-        <v>2.13297055208688</v>
+        <v>2.13447932769526</v>
       </c>
     </row>
     <row r="27">
@@ -982,10 +982,10 @@
         <v>7</v>
       </c>
       <c r="B27" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C27" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D27" t="n">
         <v>6</v>
@@ -994,10 +994,10 @@
         <v>10</v>
       </c>
       <c r="F27" t="n">
-        <v>2.04610302817542</v>
+        <v>2.17988880049319</v>
       </c>
       <c r="G27" t="n">
-        <v>2.01349486353085</v>
+        <v>2.14605049743752</v>
       </c>
     </row>
     <row r="28">
@@ -1005,10 +1005,10 @@
         <v>7</v>
       </c>
       <c r="B28" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C28" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D28" t="n">
         <v>7</v>
@@ -1017,10 +1017,10 @@
         <v>10</v>
       </c>
       <c r="F28" t="n">
-        <v>2.10208121027478</v>
+        <v>2.0637558295027</v>
       </c>
       <c r="G28" t="n">
-        <v>2.09410100558259</v>
+        <v>2.03272331731975</v>
       </c>
     </row>
     <row r="29">
@@ -1028,10 +1028,10 @@
         <v>7</v>
       </c>
       <c r="B29" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C29" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D29" t="n">
         <v>8</v>
@@ -1040,10 +1040,10 @@
         <v>10</v>
       </c>
       <c r="F29" t="n">
-        <v>2.10980660324862</v>
+        <v>2.13486731166589</v>
       </c>
       <c r="G29" t="n">
-        <v>2.08979721902341</v>
+        <v>2.10524914286878</v>
       </c>
     </row>
     <row r="30">
@@ -1051,10 +1051,10 @@
         <v>7</v>
       </c>
       <c r="B30" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C30" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D30" t="n">
         <v>9</v>
@@ -1063,10 +1063,10 @@
         <v>10</v>
       </c>
       <c r="F30" t="n">
-        <v>2.13323917282535</v>
+        <v>2.17209382665468</v>
       </c>
       <c r="G30" t="n">
-        <v>2.12969336848439</v>
+        <v>2.14075958085957</v>
       </c>
     </row>
     <row r="31">
@@ -1074,10 +1074,10 @@
         <v>7</v>
       </c>
       <c r="B31" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D31" t="n">
         <v>10</v>
@@ -1086,10 +1086,10 @@
         <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>2.14444658506894</v>
+        <v>2.0755451738369</v>
       </c>
       <c r="G31" t="n">
-        <v>2.10475800461919</v>
+        <v>2.05444591420582</v>
       </c>
     </row>
     <row r="32">
@@ -1097,10 +1097,10 @@
         <v>7</v>
       </c>
       <c r="B32" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C32" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D32" t="n">
         <v>1</v>
@@ -1109,10 +1109,10 @@
         <v>11</v>
       </c>
       <c r="F32" t="n">
-        <v>1.07724507374043</v>
+        <v>1.05918598291596</v>
       </c>
       <c r="G32" t="n">
-        <v>1.07225250471057</v>
+        <v>1.02993231685816</v>
       </c>
     </row>
     <row r="33">
@@ -1120,10 +1120,10 @@
         <v>7</v>
       </c>
       <c r="B33" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C33" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D33" t="n">
         <v>2</v>
@@ -1132,10 +1132,10 @@
         <v>11</v>
       </c>
       <c r="F33" t="n">
-        <v>1.08708119638169</v>
+        <v>1.10137224747215</v>
       </c>
       <c r="G33" t="n">
-        <v>1.06990100261176</v>
+        <v>1.08996707679221</v>
       </c>
     </row>
     <row r="34">
@@ -1143,10 +1143,10 @@
         <v>7</v>
       </c>
       <c r="B34" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C34" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D34" t="n">
         <v>3</v>
@@ -1155,10 +1155,10 @@
         <v>11</v>
       </c>
       <c r="F34" t="n">
-        <v>1.0654981508815</v>
+        <v>1.02333199571151</v>
       </c>
       <c r="G34" t="n">
-        <v>1.08535582380257</v>
+        <v>1.0274287284927</v>
       </c>
     </row>
     <row r="35">
@@ -1166,10 +1166,10 @@
         <v>7</v>
       </c>
       <c r="B35" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C35" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D35" t="n">
         <v>4</v>
@@ -1178,10 +1178,10 @@
         <v>11</v>
       </c>
       <c r="F35" t="n">
-        <v>1.08701175643336</v>
+        <v>1.1042032271167</v>
       </c>
       <c r="G35" t="n">
-        <v>1.08393584046576</v>
+        <v>1.09217727900253</v>
       </c>
     </row>
     <row r="36">
@@ -1189,10 +1189,10 @@
         <v>7</v>
       </c>
       <c r="B36" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C36" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D36" t="n">
         <v>5</v>
@@ -1201,10 +1201,10 @@
         <v>11</v>
       </c>
       <c r="F36" t="n">
-        <v>1.07454464324754</v>
+        <v>1.07158258296081</v>
       </c>
       <c r="G36" t="n">
-        <v>1.06716293915704</v>
+        <v>1.06793737767733</v>
       </c>
     </row>
     <row r="37">
@@ -1212,10 +1212,10 @@
         <v>7</v>
       </c>
       <c r="B37" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C37" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D37" t="n">
         <v>6</v>
@@ -1224,10 +1224,10 @@
         <v>11</v>
       </c>
       <c r="F37" t="n">
-        <v>1.06618966500723</v>
+        <v>1.08880589102856</v>
       </c>
       <c r="G37" t="n">
-        <v>1.06274706373558</v>
+        <v>1.05962427017078</v>
       </c>
     </row>
     <row r="38">
@@ -1235,10 +1235,10 @@
         <v>7</v>
       </c>
       <c r="B38" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C38" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D38" t="n">
         <v>7</v>
@@ -1247,10 +1247,10 @@
         <v>11</v>
       </c>
       <c r="F38" t="n">
-        <v>1.04854457908915</v>
+        <v>1.03148351977077</v>
       </c>
       <c r="G38" t="n">
-        <v>1.04791801971442</v>
+        <v>1.04331931428315</v>
       </c>
     </row>
     <row r="39">
@@ -1258,10 +1258,10 @@
         <v>7</v>
       </c>
       <c r="B39" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C39" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D39" t="n">
         <v>8</v>
@@ -1270,10 +1270,10 @@
         <v>11</v>
       </c>
       <c r="F39" t="n">
-        <v>1.08622877020257</v>
+        <v>1.0490631797946</v>
       </c>
       <c r="G39" t="n">
-        <v>1.08157764165531</v>
+        <v>1.03866501959186</v>
       </c>
     </row>
     <row r="40">
@@ -1281,10 +1281,10 @@
         <v>7</v>
       </c>
       <c r="B40" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C40" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D40" t="n">
         <v>9</v>
@@ -1293,10 +1293,10 @@
         <v>11</v>
       </c>
       <c r="F40" t="n">
-        <v>1.07153831257526</v>
+        <v>1.09424084185943</v>
       </c>
       <c r="G40" t="n">
-        <v>1.08450940593236</v>
+        <v>1.08017412198006</v>
       </c>
     </row>
     <row r="41">
@@ -1304,10 +1304,10 @@
         <v>7</v>
       </c>
       <c r="B41" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C41" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D41" t="n">
         <v>10</v>
@@ -1316,10 +1316,10 @@
         <v>11</v>
       </c>
       <c r="F41" t="n">
-        <v>1.06495313849747</v>
+        <v>1.07645738981092</v>
       </c>
       <c r="G41" t="n">
-        <v>1.0637399656263</v>
+        <v>1.05774873961777</v>
       </c>
     </row>
     <row r="42">
@@ -1327,7 +1327,7 @@
         <v>7</v>
       </c>
       <c r="B42" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C42" t="n">
         <v>70</v>
@@ -1339,10 +1339,10 @@
         <v>8</v>
       </c>
       <c r="F42" t="n">
-        <v>0.924</v>
+        <v>0.9165</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9295</v>
+        <v>0.928</v>
       </c>
     </row>
     <row r="43">
@@ -1350,7 +1350,7 @@
         <v>7</v>
       </c>
       <c r="B43" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C43" t="n">
         <v>70</v>
@@ -1362,10 +1362,10 @@
         <v>8</v>
       </c>
       <c r="F43" t="n">
-        <v>0.911</v>
+        <v>0.937</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9235</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="44">
@@ -1373,7 +1373,7 @@
         <v>7</v>
       </c>
       <c r="B44" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C44" t="n">
         <v>70</v>
@@ -1385,10 +1385,10 @@
         <v>8</v>
       </c>
       <c r="F44" t="n">
-        <v>0.923</v>
+        <v>0.919</v>
       </c>
       <c r="G44" t="n">
-        <v>0.93</v>
+        <v>0.922</v>
       </c>
     </row>
     <row r="45">
@@ -1396,7 +1396,7 @@
         <v>7</v>
       </c>
       <c r="B45" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C45" t="n">
         <v>70</v>
@@ -1408,10 +1408,10 @@
         <v>8</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9235</v>
+        <v>0.916</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9295</v>
+        <v>0.922</v>
       </c>
     </row>
     <row r="46">
@@ -1419,7 +1419,7 @@
         <v>7</v>
       </c>
       <c r="B46" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C46" t="n">
         <v>70</v>
@@ -1431,10 +1431,10 @@
         <v>8</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9225</v>
+        <v>0.915</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9285</v>
+        <v>0.9245</v>
       </c>
     </row>
     <row r="47">
@@ -1442,7 +1442,7 @@
         <v>7</v>
       </c>
       <c r="B47" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C47" t="n">
         <v>70</v>
@@ -1454,10 +1454,10 @@
         <v>8</v>
       </c>
       <c r="F47" t="n">
-        <v>0.914</v>
+        <v>0.926</v>
       </c>
       <c r="G47" t="n">
-        <v>0.9235</v>
+        <v>0.937</v>
       </c>
     </row>
     <row r="48">
@@ -1465,7 +1465,7 @@
         <v>7</v>
       </c>
       <c r="B48" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C48" t="n">
         <v>70</v>
@@ -1477,10 +1477,10 @@
         <v>8</v>
       </c>
       <c r="F48" t="n">
-        <v>0.906</v>
+        <v>0.9095</v>
       </c>
       <c r="G48" t="n">
-        <v>0.917</v>
+        <v>0.9165</v>
       </c>
     </row>
     <row r="49">
@@ -1488,7 +1488,7 @@
         <v>7</v>
       </c>
       <c r="B49" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C49" t="n">
         <v>70</v>
@@ -1500,10 +1500,10 @@
         <v>8</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9305</v>
+        <v>0.9185</v>
       </c>
       <c r="G49" t="n">
-        <v>0.9375</v>
+        <v>0.931</v>
       </c>
     </row>
     <row r="50">
@@ -1511,7 +1511,7 @@
         <v>7</v>
       </c>
       <c r="B50" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C50" t="n">
         <v>70</v>
@@ -1523,10 +1523,10 @@
         <v>8</v>
       </c>
       <c r="F50" t="n">
-        <v>0.917</v>
+        <v>0.919</v>
       </c>
       <c r="G50" t="n">
-        <v>0.929</v>
+        <v>0.928</v>
       </c>
     </row>
     <row r="51">
@@ -1534,7 +1534,7 @@
         <v>7</v>
       </c>
       <c r="B51" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C51" t="n">
         <v>70</v>
@@ -1546,10 +1546,10 @@
         <v>8</v>
       </c>
       <c r="F51" t="n">
-        <v>0.919</v>
+        <v>0.921</v>
       </c>
       <c r="G51" t="n">
-        <v>0.9215</v>
+        <v>0.9275</v>
       </c>
     </row>
     <row r="52">
@@ -1557,7 +1557,7 @@
         <v>7</v>
       </c>
       <c r="B52" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C52" t="n">
         <v>70</v>
@@ -1569,10 +1569,10 @@
         <v>9</v>
       </c>
       <c r="F52" t="n">
-        <v>3.85129343009238</v>
+        <v>3.84547918546054</v>
       </c>
       <c r="G52" t="n">
-        <v>3.91344454992062</v>
+        <v>3.9279788654535</v>
       </c>
     </row>
     <row r="53">
@@ -1580,7 +1580,7 @@
         <v>7</v>
       </c>
       <c r="B53" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C53" t="n">
         <v>70</v>
@@ -1592,10 +1592,10 @@
         <v>9</v>
       </c>
       <c r="F53" t="n">
-        <v>3.84769766512934</v>
+        <v>3.83205866539853</v>
       </c>
       <c r="G53" t="n">
-        <v>3.91864268704009</v>
+        <v>3.90887371242399</v>
       </c>
     </row>
     <row r="54">
@@ -1603,7 +1603,7 @@
         <v>7</v>
       </c>
       <c r="B54" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C54" t="n">
         <v>70</v>
@@ -1615,10 +1615,10 @@
         <v>9</v>
       </c>
       <c r="F54" t="n">
-        <v>3.86302929753956</v>
+        <v>3.84290685162181</v>
       </c>
       <c r="G54" t="n">
-        <v>3.92640355832238</v>
+        <v>3.91274293488337</v>
       </c>
     </row>
     <row r="55">
@@ -1626,7 +1626,7 @@
         <v>7</v>
       </c>
       <c r="B55" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C55" t="n">
         <v>70</v>
@@ -1638,10 +1638,10 @@
         <v>9</v>
       </c>
       <c r="F55" t="n">
-        <v>3.86663011824248</v>
+        <v>3.82981423111106</v>
       </c>
       <c r="G55" t="n">
-        <v>3.93666468909963</v>
+        <v>3.92195372344046</v>
       </c>
     </row>
     <row r="56">
@@ -1649,7 +1649,7 @@
         <v>7</v>
       </c>
       <c r="B56" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C56" t="n">
         <v>70</v>
@@ -1661,10 +1661,10 @@
         <v>9</v>
       </c>
       <c r="F56" t="n">
-        <v>3.87054932396261</v>
+        <v>3.81571976498569</v>
       </c>
       <c r="G56" t="n">
-        <v>3.93208813419953</v>
+        <v>3.93943063256071</v>
       </c>
     </row>
     <row r="57">
@@ -1672,7 +1672,7 @@
         <v>7</v>
       </c>
       <c r="B57" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C57" t="n">
         <v>70</v>
@@ -1684,10 +1684,10 @@
         <v>9</v>
       </c>
       <c r="F57" t="n">
-        <v>3.86669966933059</v>
+        <v>3.84632945506789</v>
       </c>
       <c r="G57" t="n">
-        <v>3.94967154352456</v>
+        <v>3.92472642477796</v>
       </c>
     </row>
     <row r="58">
@@ -1695,7 +1695,7 @@
         <v>7</v>
       </c>
       <c r="B58" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C58" t="n">
         <v>70</v>
@@ -1707,10 +1707,10 @@
         <v>9</v>
       </c>
       <c r="F58" t="n">
-        <v>3.84991460316374</v>
+        <v>3.84908083151487</v>
       </c>
       <c r="G58" t="n">
-        <v>3.93169274306763</v>
+        <v>3.93722297088806</v>
       </c>
     </row>
     <row r="59">
@@ -1718,7 +1718,7 @@
         <v>7</v>
       </c>
       <c r="B59" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C59" t="n">
         <v>70</v>
@@ -1730,10 +1730,10 @@
         <v>9</v>
       </c>
       <c r="F59" t="n">
-        <v>3.87186946563414</v>
+        <v>3.84513649955865</v>
       </c>
       <c r="G59" t="n">
-        <v>3.96887769286486</v>
+        <v>3.95612663275998</v>
       </c>
     </row>
     <row r="60">
@@ -1741,7 +1741,7 @@
         <v>7</v>
       </c>
       <c r="B60" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C60" t="n">
         <v>70</v>
@@ -1753,10 +1753,10 @@
         <v>9</v>
       </c>
       <c r="F60" t="n">
-        <v>3.86046486574853</v>
+        <v>3.85881679898349</v>
       </c>
       <c r="G60" t="n">
-        <v>3.9646458556382</v>
+        <v>3.93593482780127</v>
       </c>
     </row>
     <row r="61">
@@ -1764,7 +1764,7 @@
         <v>7</v>
       </c>
       <c r="B61" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C61" t="n">
         <v>70</v>
@@ -1776,10 +1776,10 @@
         <v>9</v>
       </c>
       <c r="F61" t="n">
-        <v>3.84566311938082</v>
+        <v>3.83296054250911</v>
       </c>
       <c r="G61" t="n">
-        <v>3.93909788036056</v>
+        <v>3.93680989199251</v>
       </c>
     </row>
     <row r="62">
@@ -1787,7 +1787,7 @@
         <v>7</v>
       </c>
       <c r="B62" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C62" t="n">
         <v>70</v>
@@ -1799,10 +1799,10 @@
         <v>10</v>
       </c>
       <c r="F62" t="n">
-        <v>2.05328328429126</v>
+        <v>2.06605582594513</v>
       </c>
       <c r="G62" t="n">
-        <v>2.06351727025926</v>
+        <v>2.0275086417933</v>
       </c>
     </row>
     <row r="63">
@@ -1810,7 +1810,7 @@
         <v>7</v>
       </c>
       <c r="B63" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C63" t="n">
         <v>70</v>
@@ -1822,10 +1822,10 @@
         <v>10</v>
       </c>
       <c r="F63" t="n">
-        <v>2.17052380971776</v>
+        <v>2.00910223488869</v>
       </c>
       <c r="G63" t="n">
-        <v>2.12976158296005</v>
+        <v>1.96946281978057</v>
       </c>
     </row>
     <row r="64">
@@ -1833,7 +1833,7 @@
         <v>7</v>
       </c>
       <c r="B64" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C64" t="n">
         <v>70</v>
@@ -1845,10 +1845,10 @@
         <v>10</v>
       </c>
       <c r="F64" t="n">
-        <v>2.1080129316827</v>
+        <v>2.17027208018543</v>
       </c>
       <c r="G64" t="n">
-        <v>2.08542630507164</v>
+        <v>2.13795846169959</v>
       </c>
     </row>
     <row r="65">
@@ -1856,7 +1856,7 @@
         <v>7</v>
       </c>
       <c r="B65" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C65" t="n">
         <v>70</v>
@@ -1868,10 +1868,10 @@
         <v>10</v>
       </c>
       <c r="F65" t="n">
-        <v>2.07146425152469</v>
+        <v>2.14634179899549</v>
       </c>
       <c r="G65" t="n">
-        <v>2.05256790409392</v>
+        <v>2.10638971617871</v>
       </c>
     </row>
     <row r="66">
@@ -1879,7 +1879,7 @@
         <v>7</v>
       </c>
       <c r="B66" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C66" t="n">
         <v>70</v>
@@ -1891,10 +1891,10 @@
         <v>10</v>
       </c>
       <c r="F66" t="n">
-        <v>2.14057394182819</v>
+        <v>2.10645085062209</v>
       </c>
       <c r="G66" t="n">
-        <v>2.11567921278158</v>
+        <v>2.06602148039281</v>
       </c>
     </row>
     <row r="67">
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="B67" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C67" t="n">
         <v>70</v>
@@ -1914,10 +1914,10 @@
         <v>10</v>
       </c>
       <c r="F67" t="n">
-        <v>2.19910080110906</v>
+        <v>2.09848843964015</v>
       </c>
       <c r="G67" t="n">
-        <v>2.17741400440392</v>
+        <v>2.05914869608159</v>
       </c>
     </row>
     <row r="68">
@@ -1925,7 +1925,7 @@
         <v>7</v>
       </c>
       <c r="B68" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C68" t="n">
         <v>70</v>
@@ -1937,10 +1937,10 @@
         <v>10</v>
       </c>
       <c r="F68" t="n">
-        <v>2.12553073662352</v>
+        <v>2.18773042578168</v>
       </c>
       <c r="G68" t="n">
-        <v>2.11398396283022</v>
+        <v>2.15382624191173</v>
       </c>
     </row>
     <row r="69">
@@ -1948,7 +1948,7 @@
         <v>7</v>
       </c>
       <c r="B69" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C69" t="n">
         <v>70</v>
@@ -1960,10 +1960,10 @@
         <v>10</v>
       </c>
       <c r="F69" t="n">
-        <v>2.07831431201295</v>
+        <v>2.22344997190112</v>
       </c>
       <c r="G69" t="n">
-        <v>2.04958839273359</v>
+        <v>2.14887234488644</v>
       </c>
     </row>
     <row r="70">
@@ -1971,7 +1971,7 @@
         <v>7</v>
       </c>
       <c r="B70" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C70" t="n">
         <v>70</v>
@@ -1983,10 +1983,10 @@
         <v>10</v>
       </c>
       <c r="F70" t="n">
-        <v>2.11005184685235</v>
+        <v>2.14979999967422</v>
       </c>
       <c r="G70" t="n">
-        <v>2.08198345746594</v>
+        <v>2.11008044462098</v>
       </c>
     </row>
     <row r="71">
@@ -1994,7 +1994,7 @@
         <v>7</v>
       </c>
       <c r="B71" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C71" t="n">
         <v>70</v>
@@ -2006,10 +2006,10 @@
         <v>10</v>
       </c>
       <c r="F71" t="n">
-        <v>2.13891785351942</v>
+        <v>2.09051278773562</v>
       </c>
       <c r="G71" t="n">
-        <v>2.11076443597137</v>
+        <v>2.07675080793946</v>
       </c>
     </row>
     <row r="72">
@@ -2017,7 +2017,7 @@
         <v>7</v>
       </c>
       <c r="B72" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C72" t="n">
         <v>70</v>
@@ -2029,10 +2029,10 @@
         <v>11</v>
       </c>
       <c r="F72" t="n">
-        <v>1.04909192910378</v>
+        <v>1.03593159407335</v>
       </c>
       <c r="G72" t="n">
-        <v>1.0456577576451</v>
+        <v>1.02215886148429</v>
       </c>
     </row>
     <row r="73">
@@ -2040,7 +2040,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C73" t="n">
         <v>70</v>
@@ -2052,10 +2052,10 @@
         <v>11</v>
       </c>
       <c r="F73" t="n">
-        <v>1.0534331025286</v>
+        <v>1.03954194715684</v>
       </c>
       <c r="G73" t="n">
-        <v>1.06993239839386</v>
+        <v>1.0236968413811</v>
       </c>
     </row>
     <row r="74">
@@ -2063,7 +2063,7 @@
         <v>7</v>
       </c>
       <c r="B74" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C74" t="n">
         <v>70</v>
@@ -2075,10 +2075,10 @@
         <v>11</v>
       </c>
       <c r="F74" t="n">
-        <v>1.07850760994136</v>
+        <v>1.1223008837861</v>
       </c>
       <c r="G74" t="n">
-        <v>1.07290645776369</v>
+        <v>1.10307592819019</v>
       </c>
     </row>
     <row r="75">
@@ -2086,7 +2086,7 @@
         <v>7</v>
       </c>
       <c r="B75" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C75" t="n">
         <v>70</v>
@@ -2098,10 +2098,10 @@
         <v>11</v>
       </c>
       <c r="F75" t="n">
-        <v>1.05360729374975</v>
+        <v>1.07979864300761</v>
       </c>
       <c r="G75" t="n">
-        <v>1.04017948376737</v>
+        <v>1.04312712332871</v>
       </c>
     </row>
     <row r="76">
@@ -2109,7 +2109,7 @@
         <v>7</v>
       </c>
       <c r="B76" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C76" t="n">
         <v>70</v>
@@ -2121,10 +2121,10 @@
         <v>11</v>
       </c>
       <c r="F76" t="n">
-        <v>1.07221308776034</v>
+        <v>1.03958130301683</v>
       </c>
       <c r="G76" t="n">
-        <v>1.05901936143055</v>
+        <v>1.03721353130934</v>
       </c>
     </row>
     <row r="77">
@@ -2132,7 +2132,7 @@
         <v>7</v>
       </c>
       <c r="B77" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C77" t="n">
         <v>70</v>
@@ -2144,10 +2144,10 @@
         <v>11</v>
       </c>
       <c r="F77" t="n">
-        <v>1.10751336004059</v>
+        <v>1.08296345368489</v>
       </c>
       <c r="G77" t="n">
-        <v>1.09184837756449</v>
+        <v>1.09032208216701</v>
       </c>
     </row>
     <row r="78">
@@ -2155,7 +2155,7 @@
         <v>7</v>
       </c>
       <c r="B78" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C78" t="n">
         <v>70</v>
@@ -2167,10 +2167,10 @@
         <v>11</v>
       </c>
       <c r="F78" t="n">
-        <v>1.07674735718742</v>
+        <v>1.11969891115798</v>
       </c>
       <c r="G78" t="n">
-        <v>1.08891625317137</v>
+        <v>1.09271231195709</v>
       </c>
     </row>
     <row r="79">
@@ -2178,7 +2178,7 @@
         <v>7</v>
       </c>
       <c r="B79" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C79" t="n">
         <v>70</v>
@@ -2190,10 +2190,10 @@
         <v>11</v>
       </c>
       <c r="F79" t="n">
-        <v>1.06877311270153</v>
+        <v>1.08260482050146</v>
       </c>
       <c r="G79" t="n">
-        <v>1.03724702571242</v>
+        <v>1.06550242368115</v>
       </c>
     </row>
     <row r="80">
@@ -2201,7 +2201,7 @@
         <v>7</v>
       </c>
       <c r="B80" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C80" t="n">
         <v>70</v>
@@ -2213,10 +2213,10 @@
         <v>11</v>
       </c>
       <c r="F80" t="n">
-        <v>1.09541506806625</v>
+        <v>1.09734000282403</v>
       </c>
       <c r="G80" t="n">
-        <v>1.09116036690366</v>
+        <v>1.08234081664439</v>
       </c>
     </row>
     <row r="81">
@@ -2224,7 +2224,7 @@
         <v>7</v>
       </c>
       <c r="B81" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C81" t="n">
         <v>70</v>
@@ -2236,10 +2236,10 @@
         <v>11</v>
       </c>
       <c r="F81" t="n">
-        <v>1.08751111431353</v>
+        <v>1.06084928280338</v>
       </c>
       <c r="G81" t="n">
-        <v>1.07816637873518</v>
+        <v>1.0504507296104</v>
       </c>
     </row>
     <row r="82">
@@ -2247,10 +2247,10 @@
         <v>7</v>
       </c>
       <c r="B82" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C82" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D82" t="n">
         <v>1</v>
@@ -2259,10 +2259,10 @@
         <v>8</v>
       </c>
       <c r="F82" t="n">
-        <v>0.903</v>
+        <v>0.918</v>
       </c>
       <c r="G82" t="n">
-        <v>0.899</v>
+        <v>0.9215</v>
       </c>
     </row>
     <row r="83">
@@ -2270,10 +2270,10 @@
         <v>7</v>
       </c>
       <c r="B83" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C83" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D83" t="n">
         <v>2</v>
@@ -2282,10 +2282,10 @@
         <v>8</v>
       </c>
       <c r="F83" t="n">
-        <v>0.916</v>
+        <v>0.919</v>
       </c>
       <c r="G83" t="n">
-        <v>0.923</v>
+        <v>0.929</v>
       </c>
     </row>
     <row r="84">
@@ -2293,10 +2293,10 @@
         <v>7</v>
       </c>
       <c r="B84" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C84" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D84" t="n">
         <v>3</v>
@@ -2305,10 +2305,10 @@
         <v>8</v>
       </c>
       <c r="F84" t="n">
-        <v>0.915</v>
+        <v>0.917</v>
       </c>
       <c r="G84" t="n">
-        <v>0.9205</v>
+        <v>0.927</v>
       </c>
     </row>
     <row r="85">
@@ -2316,10 +2316,10 @@
         <v>7</v>
       </c>
       <c r="B85" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C85" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D85" t="n">
         <v>4</v>
@@ -2328,10 +2328,10 @@
         <v>8</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9155</v>
+        <v>0.906</v>
       </c>
       <c r="G85" t="n">
-        <v>0.9245</v>
+        <v>0.9215</v>
       </c>
     </row>
     <row r="86">
@@ -2339,10 +2339,10 @@
         <v>7</v>
       </c>
       <c r="B86" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C86" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D86" t="n">
         <v>5</v>
@@ -2351,10 +2351,10 @@
         <v>8</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9055</v>
+        <v>0.9195</v>
       </c>
       <c r="G86" t="n">
-        <v>0.907</v>
+        <v>0.9275</v>
       </c>
     </row>
     <row r="87">
@@ -2362,10 +2362,10 @@
         <v>7</v>
       </c>
       <c r="B87" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C87" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D87" t="n">
         <v>6</v>
@@ -2374,10 +2374,10 @@
         <v>8</v>
       </c>
       <c r="F87" t="n">
-        <v>0.905</v>
+        <v>0.909</v>
       </c>
       <c r="G87" t="n">
-        <v>0.919</v>
+        <v>0.9185</v>
       </c>
     </row>
     <row r="88">
@@ -2385,10 +2385,10 @@
         <v>7</v>
       </c>
       <c r="B88" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C88" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D88" t="n">
         <v>7</v>
@@ -2397,10 +2397,10 @@
         <v>8</v>
       </c>
       <c r="F88" t="n">
-        <v>0.909</v>
+        <v>0.9085</v>
       </c>
       <c r="G88" t="n">
-        <v>0.9115</v>
+        <v>0.9215</v>
       </c>
     </row>
     <row r="89">
@@ -2408,10 +2408,10 @@
         <v>7</v>
       </c>
       <c r="B89" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C89" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D89" t="n">
         <v>8</v>
@@ -2420,10 +2420,10 @@
         <v>8</v>
       </c>
       <c r="F89" t="n">
-        <v>0.912</v>
+        <v>0.9035</v>
       </c>
       <c r="G89" t="n">
-        <v>0.9175</v>
+        <v>0.916</v>
       </c>
     </row>
     <row r="90">
@@ -2431,10 +2431,10 @@
         <v>7</v>
       </c>
       <c r="B90" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C90" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D90" t="n">
         <v>9</v>
@@ -2443,10 +2443,10 @@
         <v>8</v>
       </c>
       <c r="F90" t="n">
-        <v>0.92</v>
+        <v>0.918</v>
       </c>
       <c r="G90" t="n">
-        <v>0.9295</v>
+        <v>0.9305</v>
       </c>
     </row>
     <row r="91">
@@ -2454,10 +2454,10 @@
         <v>7</v>
       </c>
       <c r="B91" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C91" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D91" t="n">
         <v>10</v>
@@ -2466,10 +2466,10 @@
         <v>8</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9135</v>
+        <v>0.8995</v>
       </c>
       <c r="G91" t="n">
-        <v>0.927</v>
+        <v>0.907</v>
       </c>
     </row>
     <row r="92">
@@ -2477,10 +2477,10 @@
         <v>7</v>
       </c>
       <c r="B92" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C92" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D92" t="n">
         <v>1</v>
@@ -2489,10 +2489,10 @@
         <v>9</v>
       </c>
       <c r="F92" t="n">
-        <v>3.85401338986797</v>
+        <v>3.84568498312861</v>
       </c>
       <c r="G92" t="n">
-        <v>3.89266508048807</v>
+        <v>3.89140843397107</v>
       </c>
     </row>
     <row r="93">
@@ -2500,10 +2500,10 @@
         <v>7</v>
       </c>
       <c r="B93" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C93" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D93" t="n">
         <v>2</v>
@@ -2512,10 +2512,10 @@
         <v>9</v>
       </c>
       <c r="F93" t="n">
-        <v>3.86454029081578</v>
+        <v>3.82443186083418</v>
       </c>
       <c r="G93" t="n">
-        <v>3.93603132470591</v>
+        <v>3.92727999130578</v>
       </c>
     </row>
     <row r="94">
@@ -2523,10 +2523,10 @@
         <v>7</v>
       </c>
       <c r="B94" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C94" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D94" t="n">
         <v>3</v>
@@ -2535,10 +2535,10 @@
         <v>9</v>
       </c>
       <c r="F94" t="n">
-        <v>3.86213913384121</v>
+        <v>3.82080041132229</v>
       </c>
       <c r="G94" t="n">
-        <v>3.94211955015421</v>
+        <v>3.91209414037591</v>
       </c>
     </row>
     <row r="95">
@@ -2546,10 +2546,10 @@
         <v>7</v>
       </c>
       <c r="B95" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C95" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D95" t="n">
         <v>4</v>
@@ -2558,10 +2558,10 @@
         <v>9</v>
       </c>
       <c r="F95" t="n">
-        <v>3.85042788095164</v>
+        <v>3.83857558976818</v>
       </c>
       <c r="G95" t="n">
-        <v>3.94052524924179</v>
+        <v>3.93623180381095</v>
       </c>
     </row>
     <row r="96">
@@ -2569,10 +2569,10 @@
         <v>7</v>
       </c>
       <c r="B96" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C96" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D96" t="n">
         <v>5</v>
@@ -2581,10 +2581,10 @@
         <v>9</v>
       </c>
       <c r="F96" t="n">
-        <v>3.86074796018043</v>
+        <v>3.83415088451083</v>
       </c>
       <c r="G96" t="n">
-        <v>3.9385002953415</v>
+        <v>3.92805507749583</v>
       </c>
     </row>
     <row r="97">
@@ -2592,10 +2592,10 @@
         <v>7</v>
       </c>
       <c r="B97" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C97" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D97" t="n">
         <v>6</v>
@@ -2604,10 +2604,10 @@
         <v>9</v>
       </c>
       <c r="F97" t="n">
-        <v>3.84475126734115</v>
+        <v>3.81604069173822</v>
       </c>
       <c r="G97" t="n">
-        <v>3.93821942781282</v>
+        <v>3.93262854712687</v>
       </c>
     </row>
     <row r="98">
@@ -2615,10 +2615,10 @@
         <v>7</v>
       </c>
       <c r="B98" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C98" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D98" t="n">
         <v>7</v>
@@ -2627,10 +2627,10 @@
         <v>9</v>
       </c>
       <c r="F98" t="n">
-        <v>3.86300020208039</v>
+        <v>3.83064754865423</v>
       </c>
       <c r="G98" t="n">
-        <v>3.94875791568214</v>
+        <v>3.91719131570487</v>
       </c>
     </row>
     <row r="99">
@@ -2638,10 +2638,10 @@
         <v>7</v>
       </c>
       <c r="B99" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C99" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D99" t="n">
         <v>8</v>
@@ -2650,10 +2650,10 @@
         <v>9</v>
       </c>
       <c r="F99" t="n">
-        <v>3.85259823105928</v>
+        <v>3.82013116102627</v>
       </c>
       <c r="G99" t="n">
-        <v>3.95148081253334</v>
+        <v>3.92047776587622</v>
       </c>
     </row>
     <row r="100">
@@ -2661,10 +2661,10 @@
         <v>7</v>
       </c>
       <c r="B100" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C100" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D100" t="n">
         <v>9</v>
@@ -2673,10 +2673,10 @@
         <v>9</v>
       </c>
       <c r="F100" t="n">
-        <v>3.84708473364384</v>
+        <v>3.82226412405299</v>
       </c>
       <c r="G100" t="n">
-        <v>3.95124176174965</v>
+        <v>3.95228861020058</v>
       </c>
     </row>
     <row r="101">
@@ -2684,10 +2684,10 @@
         <v>7</v>
       </c>
       <c r="B101" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C101" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D101" t="n">
         <v>10</v>
@@ -2696,10 +2696,10 @@
         <v>9</v>
       </c>
       <c r="F101" t="n">
-        <v>3.84511424643736</v>
+        <v>3.8322776770161</v>
       </c>
       <c r="G101" t="n">
-        <v>3.94597805248569</v>
+        <v>3.92373872701101</v>
       </c>
     </row>
     <row r="102">
@@ -2707,10 +2707,10 @@
         <v>7</v>
       </c>
       <c r="B102" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C102" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D102" t="n">
         <v>1</v>
@@ -2719,10 +2719,10 @@
         <v>10</v>
       </c>
       <c r="F102" t="n">
-        <v>2.13517826942737</v>
+        <v>2.13060646528922</v>
       </c>
       <c r="G102" t="n">
-        <v>2.13641616447973</v>
+        <v>2.11784382500461</v>
       </c>
     </row>
     <row r="103">
@@ -2730,10 +2730,10 @@
         <v>7</v>
       </c>
       <c r="B103" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C103" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D103" t="n">
         <v>2</v>
@@ -2742,10 +2742,10 @@
         <v>10</v>
       </c>
       <c r="F103" t="n">
-        <v>2.21128059504652</v>
+        <v>2.06196247763083</v>
       </c>
       <c r="G103" t="n">
-        <v>2.19422796158566</v>
+        <v>2.04348297958895</v>
       </c>
     </row>
     <row r="104">
@@ -2753,10 +2753,10 @@
         <v>7</v>
       </c>
       <c r="B104" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C104" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D104" t="n">
         <v>3</v>
@@ -2765,10 +2765,10 @@
         <v>10</v>
       </c>
       <c r="F104" t="n">
-        <v>2.14663895341478</v>
+        <v>2.15019527157915</v>
       </c>
       <c r="G104" t="n">
-        <v>2.1280053111807</v>
+        <v>2.12874602884012</v>
       </c>
     </row>
     <row r="105">
@@ -2776,10 +2776,10 @@
         <v>7</v>
       </c>
       <c r="B105" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C105" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D105" t="n">
         <v>4</v>
@@ -2788,10 +2788,10 @@
         <v>10</v>
       </c>
       <c r="F105" t="n">
-        <v>2.09631714992725</v>
+        <v>2.09007728701224</v>
       </c>
       <c r="G105" t="n">
-        <v>2.08027420176439</v>
+        <v>2.06869154066657</v>
       </c>
     </row>
     <row r="106">
@@ -2799,10 +2799,10 @@
         <v>7</v>
       </c>
       <c r="B106" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C106" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D106" t="n">
         <v>5</v>
@@ -2811,10 +2811,10 @@
         <v>10</v>
       </c>
       <c r="F106" t="n">
-        <v>2.18207685473901</v>
+        <v>2.20361913956531</v>
       </c>
       <c r="G106" t="n">
-        <v>2.16136401974852</v>
+        <v>2.17075935896343</v>
       </c>
     </row>
     <row r="107">
@@ -2822,10 +2822,10 @@
         <v>7</v>
       </c>
       <c r="B107" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C107" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D107" t="n">
         <v>6</v>
@@ -2834,10 +2834,10 @@
         <v>10</v>
       </c>
       <c r="F107" t="n">
-        <v>2.10959362890452</v>
+        <v>2.16780532029028</v>
       </c>
       <c r="G107" t="n">
-        <v>2.09744584834143</v>
+        <v>2.14623116690947</v>
       </c>
     </row>
     <row r="108">
@@ -2845,10 +2845,10 @@
         <v>7</v>
       </c>
       <c r="B108" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C108" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D108" t="n">
         <v>7</v>
@@ -2857,10 +2857,10 @@
         <v>10</v>
       </c>
       <c r="F108" t="n">
-        <v>2.21358354431203</v>
+        <v>2.13169973368471</v>
       </c>
       <c r="G108" t="n">
-        <v>2.19178516493151</v>
+        <v>2.0937371852089</v>
       </c>
     </row>
     <row r="109">
@@ -2868,10 +2868,10 @@
         <v>7</v>
       </c>
       <c r="B109" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C109" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D109" t="n">
         <v>8</v>
@@ -2880,10 +2880,10 @@
         <v>10</v>
       </c>
       <c r="F109" t="n">
-        <v>2.22481914447994</v>
+        <v>2.16747910405408</v>
       </c>
       <c r="G109" t="n">
-        <v>2.21243956570863</v>
+        <v>2.16617617503069</v>
       </c>
     </row>
     <row r="110">
@@ -2891,10 +2891,10 @@
         <v>7</v>
       </c>
       <c r="B110" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C110" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D110" t="n">
         <v>9</v>
@@ -2903,10 +2903,10 @@
         <v>10</v>
       </c>
       <c r="F110" t="n">
-        <v>2.11434036523037</v>
+        <v>2.04522664506522</v>
       </c>
       <c r="G110" t="n">
-        <v>2.11057826861785</v>
+        <v>2.04086329063506</v>
       </c>
     </row>
     <row r="111">
@@ -2914,10 +2914,10 @@
         <v>7</v>
       </c>
       <c r="B111" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C111" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D111" t="n">
         <v>10</v>
@@ -2926,10 +2926,10 @@
         <v>10</v>
       </c>
       <c r="F111" t="n">
-        <v>2.10662367564021</v>
+        <v>2.31511620550871</v>
       </c>
       <c r="G111" t="n">
-        <v>2.09885513071312</v>
+        <v>2.29767114472023</v>
       </c>
     </row>
     <row r="112">
@@ -2937,10 +2937,10 @@
         <v>7</v>
       </c>
       <c r="B112" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C112" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D112" t="n">
         <v>1</v>
@@ -2949,10 +2949,10 @@
         <v>11</v>
       </c>
       <c r="F112" t="n">
-        <v>1.07636825049419</v>
+        <v>1.08244283079387</v>
       </c>
       <c r="G112" t="n">
-        <v>1.07455389205087</v>
+        <v>1.06105304903695</v>
       </c>
     </row>
     <row r="113">
@@ -2960,10 +2960,10 @@
         <v>7</v>
       </c>
       <c r="B113" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C113" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D113" t="n">
         <v>2</v>
@@ -2972,10 +2972,10 @@
         <v>11</v>
       </c>
       <c r="F113" t="n">
-        <v>1.13410451702552</v>
+        <v>1.06308342376048</v>
       </c>
       <c r="G113" t="n">
-        <v>1.14156750883811</v>
+        <v>1.06325129612254</v>
       </c>
     </row>
     <row r="114">
@@ -2983,10 +2983,10 @@
         <v>7</v>
       </c>
       <c r="B114" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C114" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D114" t="n">
         <v>3</v>
@@ -2995,10 +2995,10 @@
         <v>11</v>
       </c>
       <c r="F114" t="n">
-        <v>1.05766292523061</v>
+        <v>1.08899538437968</v>
       </c>
       <c r="G114" t="n">
-        <v>1.04719558319708</v>
+        <v>1.09544986155008</v>
       </c>
     </row>
     <row r="115">
@@ -3006,10 +3006,10 @@
         <v>7</v>
       </c>
       <c r="B115" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C115" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D115" t="n">
         <v>4</v>
@@ -3018,10 +3018,10 @@
         <v>11</v>
       </c>
       <c r="F115" t="n">
-        <v>1.10679780559028</v>
+        <v>1.06116967958011</v>
       </c>
       <c r="G115" t="n">
-        <v>1.10567131973388</v>
+        <v>1.07285143282309</v>
       </c>
     </row>
     <row r="116">
@@ -3029,10 +3029,10 @@
         <v>7</v>
       </c>
       <c r="B116" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C116" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D116" t="n">
         <v>5</v>
@@ -3041,10 +3041,10 @@
         <v>11</v>
       </c>
       <c r="F116" t="n">
-        <v>1.06122736988619</v>
+        <v>1.13715424983732</v>
       </c>
       <c r="G116" t="n">
-        <v>1.06407058885679</v>
+        <v>1.11818758378129</v>
       </c>
     </row>
     <row r="117">
@@ -3052,10 +3052,10 @@
         <v>7</v>
       </c>
       <c r="B117" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C117" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D117" t="n">
         <v>6</v>
@@ -3064,10 +3064,10 @@
         <v>11</v>
       </c>
       <c r="F117" t="n">
-        <v>1.07581322275906</v>
+        <v>1.07805086071989</v>
       </c>
       <c r="G117" t="n">
-        <v>1.06609184013049</v>
+        <v>1.09620134051368</v>
       </c>
     </row>
     <row r="118">
@@ -3075,10 +3075,10 @@
         <v>7</v>
       </c>
       <c r="B118" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C118" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D118" t="n">
         <v>7</v>
@@ -3087,10 +3087,10 @@
         <v>11</v>
       </c>
       <c r="F118" t="n">
-        <v>1.09092713617322</v>
+        <v>1.06312832278495</v>
       </c>
       <c r="G118" t="n">
-        <v>1.09351036163571</v>
+        <v>1.05311466114926</v>
       </c>
     </row>
     <row r="119">
@@ -3098,10 +3098,10 @@
         <v>7</v>
       </c>
       <c r="B119" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C119" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D119" t="n">
         <v>8</v>
@@ -3110,10 +3110,10 @@
         <v>11</v>
       </c>
       <c r="F119" t="n">
-        <v>1.12325613153302</v>
+        <v>1.06715961673483</v>
       </c>
       <c r="G119" t="n">
-        <v>1.10269300030977</v>
+        <v>1.07560443929165</v>
       </c>
     </row>
     <row r="120">
@@ -3121,10 +3121,10 @@
         <v>7</v>
       </c>
       <c r="B120" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C120" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D120" t="n">
         <v>9</v>
@@ -3133,10 +3133,10 @@
         <v>11</v>
       </c>
       <c r="F120" t="n">
-        <v>1.06183523424148</v>
+        <v>1.05931011530081</v>
       </c>
       <c r="G120" t="n">
-        <v>1.07906891101709</v>
+        <v>1.07907550677041</v>
       </c>
     </row>
     <row r="121">
@@ -3144,10 +3144,10 @@
         <v>7</v>
       </c>
       <c r="B121" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C121" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D121" t="n">
         <v>10</v>
@@ -3156,10 +3156,10 @@
         <v>11</v>
       </c>
       <c r="F121" t="n">
-        <v>1.08014615131685</v>
+        <v>1.1435327169524</v>
       </c>
       <c r="G121" t="n">
-        <v>1.07355967651059</v>
+        <v>1.14554948344153</v>
       </c>
     </row>
     <row r="122">
@@ -3167,7 +3167,7 @@
         <v>7</v>
       </c>
       <c r="B122" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C122" t="n">
         <v>70</v>
@@ -3179,10 +3179,10 @@
         <v>8</v>
       </c>
       <c r="F122" t="n">
-        <v>0.929</v>
+        <v>0.9195</v>
       </c>
       <c r="G122" t="n">
-        <v>0.9345</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="123">
@@ -3190,7 +3190,7 @@
         <v>7</v>
       </c>
       <c r="B123" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C123" t="n">
         <v>70</v>
@@ -3202,10 +3202,10 @@
         <v>8</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9225</v>
+        <v>0.9305</v>
       </c>
       <c r="G123" t="n">
-        <v>0.9235</v>
+        <v>0.938</v>
       </c>
     </row>
     <row r="124">
@@ -3213,7 +3213,7 @@
         <v>7</v>
       </c>
       <c r="B124" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C124" t="n">
         <v>70</v>
@@ -3225,10 +3225,10 @@
         <v>8</v>
       </c>
       <c r="F124" t="n">
-        <v>0.913</v>
+        <v>0.9285</v>
       </c>
       <c r="G124" t="n">
-        <v>0.925</v>
+        <v>0.9405</v>
       </c>
     </row>
     <row r="125">
@@ -3236,7 +3236,7 @@
         <v>7</v>
       </c>
       <c r="B125" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C125" t="n">
         <v>70</v>
@@ -3251,7 +3251,7 @@
         <v>0.9275</v>
       </c>
       <c r="G125" t="n">
-        <v>0.9395</v>
+        <v>0.928</v>
       </c>
     </row>
     <row r="126">
@@ -3259,7 +3259,7 @@
         <v>7</v>
       </c>
       <c r="B126" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C126" t="n">
         <v>70</v>
@@ -3271,10 +3271,10 @@
         <v>8</v>
       </c>
       <c r="F126" t="n">
-        <v>0.934</v>
+        <v>0.909</v>
       </c>
       <c r="G126" t="n">
-        <v>0.9385</v>
+        <v>0.915</v>
       </c>
     </row>
     <row r="127">
@@ -3282,7 +3282,7 @@
         <v>7</v>
       </c>
       <c r="B127" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C127" t="n">
         <v>70</v>
@@ -3294,10 +3294,10 @@
         <v>8</v>
       </c>
       <c r="F127" t="n">
-        <v>0.919</v>
+        <v>0.918</v>
       </c>
       <c r="G127" t="n">
-        <v>0.926</v>
+        <v>0.928</v>
       </c>
     </row>
     <row r="128">
@@ -3305,7 +3305,7 @@
         <v>7</v>
       </c>
       <c r="B128" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C128" t="n">
         <v>70</v>
@@ -3317,10 +3317,10 @@
         <v>8</v>
       </c>
       <c r="F128" t="n">
+        <v>0.919</v>
+      </c>
+      <c r="G128" t="n">
         <v>0.927</v>
-      </c>
-      <c r="G128" t="n">
-        <v>0.9345</v>
       </c>
     </row>
     <row r="129">
@@ -3328,7 +3328,7 @@
         <v>7</v>
       </c>
       <c r="B129" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C129" t="n">
         <v>70</v>
@@ -3340,10 +3340,10 @@
         <v>8</v>
       </c>
       <c r="F129" t="n">
-        <v>0.922</v>
+        <v>0.9225</v>
       </c>
       <c r="G129" t="n">
-        <v>0.93</v>
+        <v>0.9225</v>
       </c>
     </row>
     <row r="130">
@@ -3351,7 +3351,7 @@
         <v>7</v>
       </c>
       <c r="B130" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C130" t="n">
         <v>70</v>
@@ -3363,10 +3363,10 @@
         <v>8</v>
       </c>
       <c r="F130" t="n">
-        <v>0.917</v>
+        <v>0.919</v>
       </c>
       <c r="G130" t="n">
-        <v>0.918</v>
+        <v>0.9255</v>
       </c>
     </row>
     <row r="131">
@@ -3374,7 +3374,7 @@
         <v>7</v>
       </c>
       <c r="B131" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C131" t="n">
         <v>70</v>
@@ -3386,10 +3386,10 @@
         <v>8</v>
       </c>
       <c r="F131" t="n">
-        <v>0.924</v>
+        <v>0.92</v>
       </c>
       <c r="G131" t="n">
-        <v>0.933</v>
+        <v>0.9305</v>
       </c>
     </row>
     <row r="132">
@@ -3397,7 +3397,7 @@
         <v>7</v>
       </c>
       <c r="B132" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C132" t="n">
         <v>70</v>
@@ -3409,10 +3409,10 @@
         <v>9</v>
       </c>
       <c r="F132" t="n">
-        <v>3.89790090317122</v>
+        <v>3.87104915606127</v>
       </c>
       <c r="G132" t="n">
-        <v>3.93337403082246</v>
+        <v>3.91074576270068</v>
       </c>
     </row>
     <row r="133">
@@ -3420,7 +3420,7 @@
         <v>7</v>
       </c>
       <c r="B133" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C133" t="n">
         <v>70</v>
@@ -3432,10 +3432,10 @@
         <v>9</v>
       </c>
       <c r="F133" t="n">
-        <v>3.90226745744499</v>
+        <v>3.86530890451505</v>
       </c>
       <c r="G133" t="n">
-        <v>3.95916318691708</v>
+        <v>3.92946890909219</v>
       </c>
     </row>
     <row r="134">
@@ -3443,7 +3443,7 @@
         <v>7</v>
       </c>
       <c r="B134" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C134" t="n">
         <v>70</v>
@@ -3455,10 +3455,10 @@
         <v>9</v>
       </c>
       <c r="F134" t="n">
-        <v>3.88629350053231</v>
+        <v>3.88084507948439</v>
       </c>
       <c r="G134" t="n">
-        <v>3.94781879319644</v>
+        <v>3.93998917164781</v>
       </c>
     </row>
     <row r="135">
@@ -3466,7 +3466,7 @@
         <v>7</v>
       </c>
       <c r="B135" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C135" t="n">
         <v>70</v>
@@ -3478,10 +3478,10 @@
         <v>9</v>
       </c>
       <c r="F135" t="n">
-        <v>3.89991363743055</v>
+        <v>3.87004797174922</v>
       </c>
       <c r="G135" t="n">
-        <v>3.96015965893662</v>
+        <v>3.94976063636693</v>
       </c>
     </row>
     <row r="136">
@@ -3489,7 +3489,7 @@
         <v>7</v>
       </c>
       <c r="B136" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C136" t="n">
         <v>70</v>
@@ -3501,10 +3501,10 @@
         <v>9</v>
       </c>
       <c r="F136" t="n">
-        <v>3.8925502956343</v>
+        <v>3.86818826919269</v>
       </c>
       <c r="G136" t="n">
-        <v>3.95895027499847</v>
+        <v>3.93378920912602</v>
       </c>
     </row>
     <row r="137">
@@ -3512,7 +3512,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C137" t="n">
         <v>70</v>
@@ -3524,10 +3524,10 @@
         <v>9</v>
       </c>
       <c r="F137" t="n">
-        <v>3.89043243476799</v>
+        <v>3.85772796832307</v>
       </c>
       <c r="G137" t="n">
-        <v>3.95951785002361</v>
+        <v>3.94278803919121</v>
       </c>
     </row>
     <row r="138">
@@ -3535,7 +3535,7 @@
         <v>7</v>
       </c>
       <c r="B138" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C138" t="n">
         <v>70</v>
@@ -3547,10 +3547,10 @@
         <v>9</v>
       </c>
       <c r="F138" t="n">
-        <v>3.88644862887643</v>
+        <v>3.88093637051318</v>
       </c>
       <c r="G138" t="n">
-        <v>3.95008461543147</v>
+        <v>3.94462657647181</v>
       </c>
     </row>
     <row r="139">
@@ -3558,7 +3558,7 @@
         <v>7</v>
       </c>
       <c r="B139" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C139" t="n">
         <v>70</v>
@@ -3570,10 +3570,10 @@
         <v>9</v>
       </c>
       <c r="F139" t="n">
-        <v>3.91286137731984</v>
+        <v>3.87595859080491</v>
       </c>
       <c r="G139" t="n">
-        <v>3.96160406351483</v>
+        <v>3.94765223017155</v>
       </c>
     </row>
     <row r="140">
@@ -3581,7 +3581,7 @@
         <v>7</v>
       </c>
       <c r="B140" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C140" t="n">
         <v>70</v>
@@ -3593,10 +3593,10 @@
         <v>9</v>
       </c>
       <c r="F140" t="n">
-        <v>3.90159479611461</v>
+        <v>3.87082750935525</v>
       </c>
       <c r="G140" t="n">
-        <v>3.98030085282583</v>
+        <v>3.94830482288491</v>
       </c>
     </row>
     <row r="141">
@@ -3604,7 +3604,7 @@
         <v>7</v>
       </c>
       <c r="B141" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C141" t="n">
         <v>70</v>
@@ -3616,10 +3616,10 @@
         <v>9</v>
       </c>
       <c r="F141" t="n">
-        <v>3.91759840553478</v>
+        <v>3.87486478715802</v>
       </c>
       <c r="G141" t="n">
-        <v>3.97105069041981</v>
+        <v>3.93909454106154</v>
       </c>
     </row>
     <row r="142">
@@ -3627,7 +3627,7 @@
         <v>7</v>
       </c>
       <c r="B142" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C142" t="n">
         <v>70</v>
@@ -3639,10 +3639,10 @@
         <v>10</v>
       </c>
       <c r="F142" t="n">
-        <v>2.0693832434634</v>
+        <v>2.16404001851474</v>
       </c>
       <c r="G142" t="n">
-        <v>2.05096719641516</v>
+        <v>2.1578548544363</v>
       </c>
     </row>
     <row r="143">
@@ -3650,7 +3650,7 @@
         <v>7</v>
       </c>
       <c r="B143" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C143" t="n">
         <v>70</v>
@@ -3662,10 +3662,10 @@
         <v>10</v>
       </c>
       <c r="F143" t="n">
-        <v>2.11806401244408</v>
+        <v>2.10378444831606</v>
       </c>
       <c r="G143" t="n">
-        <v>2.10098222869529</v>
+        <v>2.06673251942877</v>
       </c>
     </row>
     <row r="144">
@@ -3673,7 +3673,7 @@
         <v>7</v>
       </c>
       <c r="B144" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C144" t="n">
         <v>70</v>
@@ -3685,10 +3685,10 @@
         <v>10</v>
       </c>
       <c r="F144" t="n">
-        <v>2.14364509755677</v>
+        <v>1.97949422055972</v>
       </c>
       <c r="G144" t="n">
-        <v>2.11285447921794</v>
+        <v>1.95844478348802</v>
       </c>
     </row>
     <row r="145">
@@ -3696,7 +3696,7 @@
         <v>7</v>
       </c>
       <c r="B145" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C145" t="n">
         <v>70</v>
@@ -3708,10 +3708,10 @@
         <v>10</v>
       </c>
       <c r="F145" t="n">
-        <v>2.09378914023716</v>
+        <v>2.05977431780508</v>
       </c>
       <c r="G145" t="n">
-        <v>2.09184540576159</v>
+        <v>2.00555917444304</v>
       </c>
     </row>
     <row r="146">
@@ -3719,7 +3719,7 @@
         <v>7</v>
       </c>
       <c r="B146" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C146" t="n">
         <v>70</v>
@@ -3731,10 +3731,10 @@
         <v>10</v>
       </c>
       <c r="F146" t="n">
-        <v>2.01845326132171</v>
+        <v>2.14691315144062</v>
       </c>
       <c r="G146" t="n">
-        <v>2.00222113060117</v>
+        <v>2.11836993503174</v>
       </c>
     </row>
     <row r="147">
@@ -3742,7 +3742,7 @@
         <v>7</v>
       </c>
       <c r="B147" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C147" t="n">
         <v>70</v>
@@ -3754,10 +3754,10 @@
         <v>10</v>
       </c>
       <c r="F147" t="n">
-        <v>2.15809464481255</v>
+        <v>2.0682277114846</v>
       </c>
       <c r="G147" t="n">
-        <v>2.14008112148413</v>
+        <v>2.03486521627705</v>
       </c>
     </row>
     <row r="148">
@@ -3765,7 +3765,7 @@
         <v>7</v>
       </c>
       <c r="B148" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C148" t="n">
         <v>70</v>
@@ -3777,10 +3777,10 @@
         <v>10</v>
       </c>
       <c r="F148" t="n">
-        <v>2.0554497793468</v>
+        <v>2.04508073363222</v>
       </c>
       <c r="G148" t="n">
-        <v>2.05536572687835</v>
+        <v>2.01945435806019</v>
       </c>
     </row>
     <row r="149">
@@ -3788,7 +3788,7 @@
         <v>7</v>
       </c>
       <c r="B149" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C149" t="n">
         <v>70</v>
@@ -3800,10 +3800,10 @@
         <v>10</v>
       </c>
       <c r="F149" t="n">
-        <v>2.05767983228561</v>
+        <v>2.08445230518205</v>
       </c>
       <c r="G149" t="n">
-        <v>2.01980495980141</v>
+        <v>2.05647679029811</v>
       </c>
     </row>
     <row r="150">
@@ -3811,7 +3811,7 @@
         <v>7</v>
       </c>
       <c r="B150" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C150" t="n">
         <v>70</v>
@@ -3823,10 +3823,10 @@
         <v>10</v>
       </c>
       <c r="F150" t="n">
-        <v>2.1549825299026</v>
+        <v>2.18119974053905</v>
       </c>
       <c r="G150" t="n">
-        <v>2.14188245725923</v>
+        <v>2.15206923734281</v>
       </c>
     </row>
     <row r="151">
@@ -3834,7 +3834,7 @@
         <v>7</v>
       </c>
       <c r="B151" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C151" t="n">
         <v>70</v>
@@ -3846,10 +3846,10 @@
         <v>10</v>
       </c>
       <c r="F151" t="n">
-        <v>2.02391665829868</v>
+        <v>2.11750107564497</v>
       </c>
       <c r="G151" t="n">
-        <v>2.00386252178466</v>
+        <v>2.09255700237486</v>
       </c>
     </row>
     <row r="152">
@@ -3857,7 +3857,7 @@
         <v>7</v>
       </c>
       <c r="B152" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C152" t="n">
         <v>70</v>
@@ -3869,10 +3869,10 @@
         <v>11</v>
       </c>
       <c r="F152" t="n">
-        <v>1.03741553223926</v>
+        <v>1.06513035179691</v>
       </c>
       <c r="G152" t="n">
-        <v>1.05537715976378</v>
+        <v>1.05206012036471</v>
       </c>
     </row>
     <row r="153">
@@ -3880,7 +3880,7 @@
         <v>7</v>
       </c>
       <c r="B153" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C153" t="n">
         <v>70</v>
@@ -3892,10 +3892,10 @@
         <v>11</v>
       </c>
       <c r="F153" t="n">
-        <v>1.06824660549351</v>
+        <v>1.05885567812918</v>
       </c>
       <c r="G153" t="n">
-        <v>1.05812748338162</v>
+        <v>1.06296556732424</v>
       </c>
     </row>
     <row r="154">
@@ -3903,7 +3903,7 @@
         <v>7</v>
       </c>
       <c r="B154" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C154" t="n">
         <v>70</v>
@@ -3915,10 +3915,10 @@
         <v>11</v>
       </c>
       <c r="F154" t="n">
-        <v>1.08897326214186</v>
+        <v>1.05245614475897</v>
       </c>
       <c r="G154" t="n">
-        <v>1.09302600025157</v>
+        <v>1.06541932371584</v>
       </c>
     </row>
     <row r="155">
@@ -3926,7 +3926,7 @@
         <v>7</v>
       </c>
       <c r="B155" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C155" t="n">
         <v>70</v>
@@ -3938,10 +3938,10 @@
         <v>11</v>
       </c>
       <c r="F155" t="n">
-        <v>1.05320719516011</v>
+        <v>1.05427779437272</v>
       </c>
       <c r="G155" t="n">
-        <v>1.04657292376505</v>
+        <v>1.04377168049847</v>
       </c>
     </row>
     <row r="156">
@@ -3949,7 +3949,7 @@
         <v>7</v>
       </c>
       <c r="B156" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C156" t="n">
         <v>70</v>
@@ -3961,10 +3961,10 @@
         <v>11</v>
       </c>
       <c r="F156" t="n">
-        <v>1.07771725221748</v>
+        <v>1.05589616611116</v>
       </c>
       <c r="G156" t="n">
-        <v>1.07270696575503</v>
+        <v>1.06293680750292</v>
       </c>
     </row>
     <row r="157">
@@ -3972,7 +3972,7 @@
         <v>7</v>
       </c>
       <c r="B157" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C157" t="n">
         <v>70</v>
@@ -3984,10 +3984,10 @@
         <v>11</v>
       </c>
       <c r="F157" t="n">
-        <v>1.08445944901999</v>
+        <v>1.02964721059091</v>
       </c>
       <c r="G157" t="n">
-        <v>1.09064366803374</v>
+        <v>1.00782021899734</v>
       </c>
     </row>
     <row r="158">
@@ -3995,7 +3995,7 @@
         <v>7</v>
       </c>
       <c r="B158" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C158" t="n">
         <v>70</v>
@@ -4007,10 +4007,10 @@
         <v>11</v>
       </c>
       <c r="F158" t="n">
-        <v>1.0400876227781</v>
+        <v>1.01732063171941</v>
       </c>
       <c r="G158" t="n">
-        <v>1.04671775288841</v>
+        <v>1.04066188734496</v>
       </c>
     </row>
     <row r="159">
@@ -4018,7 +4018,7 @@
         <v>7</v>
       </c>
       <c r="B159" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C159" t="n">
         <v>70</v>
@@ -4030,10 +4030,10 @@
         <v>11</v>
       </c>
       <c r="F159" t="n">
-        <v>1.06624897411111</v>
+        <v>1.06146166162247</v>
       </c>
       <c r="G159" t="n">
-        <v>1.04206436895362</v>
+        <v>1.05449333516927</v>
       </c>
     </row>
     <row r="160">
@@ -4041,7 +4041,7 @@
         <v>7</v>
       </c>
       <c r="B160" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C160" t="n">
         <v>70</v>
@@ -4053,10 +4053,10 @@
         <v>11</v>
       </c>
       <c r="F160" t="n">
-        <v>1.03681616819038</v>
+        <v>1.12771406322745</v>
       </c>
       <c r="G160" t="n">
-        <v>1.01949397352533</v>
+        <v>1.10558268710335</v>
       </c>
     </row>
     <row r="161">
@@ -4064,7 +4064,7 @@
         <v>7</v>
       </c>
       <c r="B161" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C161" t="n">
         <v>70</v>
@@ -4076,10 +4076,10 @@
         <v>11</v>
       </c>
       <c r="F161" t="n">
-        <v>1.05088094727337</v>
+        <v>1.09110016710978</v>
       </c>
       <c r="G161" t="n">
-        <v>1.05124937471561</v>
+        <v>1.07734795549774</v>
       </c>
     </row>
   </sheetData>
